--- a/DataMappingTool/src/documents/ECCOK_Data Mapping_v0.02.xlsx
+++ b/DataMappingTool/src/documents/ECCOK_Data Mapping_v0.02.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1275" windowWidth="15600" windowHeight="7020" tabRatio="637"/>
+    <workbookView xWindow="720" yWindow="1335" windowWidth="15600" windowHeight="6960" tabRatio="637"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="10" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14029" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14012" uniqueCount="842">
   <si>
     <t>NUMBER</t>
   </si>
@@ -2546,6 +2546,18 @@
   <si>
     <t>V0.02, always be 1 , can be removed.</t>
   </si>
+  <si>
+    <t>10,2</t>
+  </si>
+  <si>
+    <t>10,6</t>
+  </si>
+  <si>
+    <t>17,2</t>
+  </si>
+  <si>
+    <t>5,2</t>
+  </si>
 </sst>
 </file>
 
@@ -3020,7 +3032,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="25">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3482,7 +3508,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3517,7 +3543,7 @@
         <v>788</v>
       </c>
       <c r="C2" s="48">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>43</v>
@@ -3531,7 +3557,7 @@
         <v>787</v>
       </c>
       <c r="C3" s="48">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>43</v>
@@ -3545,7 +3571,7 @@
         <v>800</v>
       </c>
       <c r="C4" s="48">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>43</v>
@@ -3573,7 +3599,7 @@
         <v>50</v>
       </c>
       <c r="C6" s="48">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>43</v>
@@ -3587,7 +3613,7 @@
         <v>790</v>
       </c>
       <c r="C7" s="48">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>43</v>
@@ -3601,7 +3627,7 @@
         <v>789</v>
       </c>
       <c r="C8" s="48">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>43</v>
@@ -3682,9 +3708,9 @@
   </sheetPr>
   <dimension ref="A1:T285"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G260" sqref="A260:XFD260"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17773,27 +17799,27 @@
     <mergeCell ref="O1:R1"/>
   </mergeCells>
   <conditionalFormatting sqref="O1 O241:R277 O286:R1048576 O2:R236">
-    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O237:R240">
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M278:N279">
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O278:R279">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O280:R285">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17809,10 +17835,10 @@
   </sheetPr>
   <dimension ref="A1:T601"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A570" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F134" sqref="F134"/>
-      <selection pane="bottomLeft" activeCell="N553" sqref="N553:N601"/>
+      <selection pane="bottomLeft" activeCell="N591" sqref="N591"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17822,12 +17848,12 @@
     <col min="3" max="3" width="8.85546875" style="9" customWidth="1"/>
     <col min="4" max="4" width="4" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="9" customWidth="1"/>
     <col min="7" max="7" width="31.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" style="9" customWidth="1"/>
     <col min="9" max="9" width="5" style="9" customWidth="1"/>
     <col min="10" max="10" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" style="9" customWidth="1"/>
     <col min="12" max="12" width="31.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.140625" style="9" customWidth="1"/>
     <col min="14" max="14" width="4.140625" style="9" customWidth="1"/>
@@ -18104,7 +18130,9 @@
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>782</v>
       </c>
@@ -18117,7 +18145,9 @@
       <c r="H6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
       <c r="J6" s="1" t="s">
         <v>782</v>
       </c>
@@ -18130,7 +18160,9 @@
       <c r="M6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N6" s="1"/>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
       <c r="O6" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
@@ -19394,7 +19426,9 @@
       <c r="C30" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D30" s="67"/>
+      <c r="D30" s="67">
+        <v>10</v>
+      </c>
       <c r="E30" s="67"/>
       <c r="F30" s="67"/>
       <c r="G30" s="67"/>
@@ -19412,7 +19446,9 @@
       <c r="M30" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="N30" s="67"/>
+      <c r="N30" s="67">
+        <v>10</v>
+      </c>
       <c r="O30" s="67" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
@@ -19459,7 +19495,7 @@
         <v>220</v>
       </c>
       <c r="M31" s="67" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N31" s="67">
         <v>3</v>
@@ -19474,7 +19510,7 @@
       </c>
       <c r="Q31" s="67" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R31" s="67" t="str">
         <f t="shared" si="3"/>
@@ -19510,7 +19546,7 @@
         <v>221</v>
       </c>
       <c r="M32" s="67" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N32" s="67">
         <v>12</v>
@@ -19525,7 +19561,7 @@
       </c>
       <c r="Q32" s="67" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R32" s="67" t="str">
         <f t="shared" si="3"/>
@@ -19561,7 +19597,7 @@
         <v>222</v>
       </c>
       <c r="M33" s="67" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N33" s="67">
         <v>10</v>
@@ -19576,7 +19612,7 @@
       </c>
       <c r="Q33" s="67" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R33" s="67" t="str">
         <f t="shared" si="3"/>
@@ -19612,7 +19648,7 @@
         <v>223</v>
       </c>
       <c r="M34" s="67" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N34" s="67">
         <v>10</v>
@@ -19627,7 +19663,7 @@
       </c>
       <c r="Q34" s="67" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R34" s="67" t="str">
         <f t="shared" si="3"/>
@@ -19663,7 +19699,7 @@
         <v>224</v>
       </c>
       <c r="M35" s="67" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N35" s="67">
         <v>10</v>
@@ -19678,7 +19714,7 @@
       </c>
       <c r="Q35" s="67" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R35" s="67" t="str">
         <f t="shared" si="3"/>
@@ -19790,7 +19826,9 @@
       <c r="C38" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="67"/>
+      <c r="D38" s="67">
+        <v>38</v>
+      </c>
       <c r="E38" s="67"/>
       <c r="F38" s="67"/>
       <c r="G38" s="67"/>
@@ -19808,7 +19846,9 @@
       <c r="M38" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="N38" s="67"/>
+      <c r="N38" s="67">
+        <v>38</v>
+      </c>
       <c r="O38" s="67" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
@@ -19855,7 +19895,7 @@
         <v>226</v>
       </c>
       <c r="M39" s="67" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N39" s="67">
         <v>8</v>
@@ -19870,7 +19910,7 @@
       </c>
       <c r="Q39" s="67" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R39" s="67" t="str">
         <f t="shared" si="3"/>
@@ -19906,7 +19946,7 @@
         <v>227</v>
       </c>
       <c r="M40" s="67" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N40" s="67">
         <v>8</v>
@@ -19921,7 +19961,7 @@
       </c>
       <c r="Q40" s="67" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R40" s="67" t="str">
         <f t="shared" si="3"/>
@@ -19957,7 +19997,7 @@
         <v>228</v>
       </c>
       <c r="M41" s="67" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N41" s="67">
         <v>5</v>
@@ -19972,7 +20012,7 @@
       </c>
       <c r="Q41" s="67" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R41" s="67" t="str">
         <f t="shared" si="3"/>
@@ -20008,7 +20048,7 @@
         <v>229</v>
       </c>
       <c r="M42" s="67" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N42" s="67">
         <v>8</v>
@@ -20023,7 +20063,7 @@
       </c>
       <c r="Q42" s="67" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R42" s="67" t="str">
         <f t="shared" si="3"/>
@@ -20059,7 +20099,7 @@
         <v>230</v>
       </c>
       <c r="M43" s="67" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N43" s="67">
         <v>8</v>
@@ -20074,7 +20114,7 @@
       </c>
       <c r="Q43" s="67" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R43" s="67" t="str">
         <f t="shared" si="3"/>
@@ -20110,7 +20150,7 @@
         <v>231</v>
       </c>
       <c r="M44" s="67" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N44" s="67">
         <v>10</v>
@@ -20125,7 +20165,7 @@
       </c>
       <c r="Q44" s="67" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R44" s="67" t="str">
         <f t="shared" si="3"/>
@@ -20143,7 +20183,9 @@
       <c r="C45" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D45" s="67"/>
+      <c r="D45" s="67" t="s">
+        <v>823</v>
+      </c>
       <c r="E45" s="67"/>
       <c r="F45" s="67"/>
       <c r="G45" s="67"/>
@@ -20161,7 +20203,9 @@
       <c r="M45" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="N45" s="67"/>
+      <c r="N45" s="67" t="s">
+        <v>823</v>
+      </c>
       <c r="O45" s="67" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
@@ -20208,7 +20252,7 @@
         <v>233</v>
       </c>
       <c r="M46" s="67" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N46" s="67">
         <v>8</v>
@@ -20223,7 +20267,7 @@
       </c>
       <c r="Q46" s="67" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R46" s="67" t="str">
         <f t="shared" si="3"/>
@@ -20259,7 +20303,7 @@
         <v>234</v>
       </c>
       <c r="M47" s="67" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N47" s="67">
         <v>19</v>
@@ -20274,7 +20318,7 @@
       </c>
       <c r="Q47" s="67" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R47" s="67" t="str">
         <f t="shared" si="3"/>
@@ -20310,7 +20354,7 @@
         <v>235</v>
       </c>
       <c r="M48" s="67" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N48" s="67">
         <v>10</v>
@@ -20325,7 +20369,7 @@
       </c>
       <c r="Q48" s="67" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R48" s="67" t="str">
         <f t="shared" si="3"/>
@@ -20343,7 +20387,9 @@
       <c r="C49" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D49" s="67"/>
+      <c r="D49" s="67" t="s">
+        <v>823</v>
+      </c>
       <c r="E49" s="67"/>
       <c r="F49" s="67"/>
       <c r="G49" s="67"/>
@@ -20361,7 +20407,9 @@
       <c r="M49" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="N49" s="67"/>
+      <c r="N49" s="67" t="s">
+        <v>823</v>
+      </c>
       <c r="O49" s="67" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
@@ -20408,7 +20456,7 @@
         <v>237</v>
       </c>
       <c r="M50" s="67" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N50" s="67">
         <v>3</v>
@@ -20423,7 +20471,7 @@
       </c>
       <c r="Q50" s="67" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R50" s="67" t="str">
         <f t="shared" si="3"/>
@@ -20459,7 +20507,7 @@
         <v>238</v>
       </c>
       <c r="M51" s="67" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N51" s="67">
         <v>10</v>
@@ -20474,7 +20522,7 @@
       </c>
       <c r="Q51" s="67" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R51" s="67" t="str">
         <f t="shared" si="3"/>
@@ -20492,7 +20540,9 @@
       <c r="C52" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D52" s="67"/>
+      <c r="D52" s="67" t="s">
+        <v>823</v>
+      </c>
       <c r="E52" s="67"/>
       <c r="F52" s="67"/>
       <c r="G52" s="67"/>
@@ -20510,7 +20560,9 @@
       <c r="M52" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="N52" s="67"/>
+      <c r="N52" s="67" t="s">
+        <v>823</v>
+      </c>
       <c r="O52" s="67" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
@@ -20557,7 +20609,7 @@
         <v>240</v>
       </c>
       <c r="M53" s="67" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N53" s="67">
         <v>10</v>
@@ -20572,7 +20624,7 @@
       </c>
       <c r="Q53" s="67" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R53" s="67" t="str">
         <f t="shared" si="3"/>
@@ -20608,7 +20660,7 @@
         <v>241</v>
       </c>
       <c r="M54" s="67" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N54" s="67">
         <v>10</v>
@@ -20623,7 +20675,7 @@
       </c>
       <c r="Q54" s="67" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R54" s="67" t="str">
         <f t="shared" si="3"/>
@@ -20659,7 +20711,7 @@
         <v>242</v>
       </c>
       <c r="M55" s="67" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N55" s="67">
         <v>8</v>
@@ -20674,7 +20726,7 @@
       </c>
       <c r="Q55" s="67" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R55" s="67" t="str">
         <f t="shared" si="3"/>
@@ -20710,7 +20762,7 @@
         <v>243</v>
       </c>
       <c r="M56" s="67" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N56" s="67">
         <v>10</v>
@@ -20725,7 +20777,7 @@
       </c>
       <c r="Q56" s="67" t="str">
         <f t="shared" si="2"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R56" s="67" t="str">
         <f t="shared" si="3"/>
@@ -20743,7 +20795,9 @@
       <c r="C57" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D57" s="67"/>
+      <c r="D57" s="67">
+        <v>10</v>
+      </c>
       <c r="E57" s="67"/>
       <c r="F57" s="67"/>
       <c r="G57" s="67"/>
@@ -20761,7 +20815,9 @@
       <c r="M57" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="N57" s="67"/>
+      <c r="N57" s="67">
+        <v>10</v>
+      </c>
       <c r="O57" s="67" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
@@ -20790,7 +20846,9 @@
       <c r="C58" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D58" s="67"/>
+      <c r="D58" s="67">
+        <v>10</v>
+      </c>
       <c r="E58" s="67"/>
       <c r="F58" s="67"/>
       <c r="G58" s="67"/>
@@ -20808,7 +20866,9 @@
       <c r="M58" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="N58" s="67"/>
+      <c r="N58" s="67">
+        <v>10</v>
+      </c>
       <c r="O58" s="67" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
@@ -20837,7 +20897,9 @@
       <c r="C59" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D59" s="67"/>
+      <c r="D59" s="67">
+        <v>10</v>
+      </c>
       <c r="E59" s="67"/>
       <c r="F59" s="67"/>
       <c r="G59" s="67"/>
@@ -20855,7 +20917,9 @@
       <c r="M59" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="N59" s="67"/>
+      <c r="N59" s="67">
+        <v>10</v>
+      </c>
       <c r="O59" s="67" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
@@ -20884,7 +20948,9 @@
       <c r="C60" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D60" s="67"/>
+      <c r="D60" s="67">
+        <v>10</v>
+      </c>
       <c r="E60" s="67"/>
       <c r="F60" s="67"/>
       <c r="G60" s="67"/>
@@ -20902,7 +20968,9 @@
       <c r="M60" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="N60" s="67"/>
+      <c r="N60" s="67">
+        <v>10</v>
+      </c>
       <c r="O60" s="67" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
@@ -20931,7 +20999,9 @@
       <c r="C61" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D61" s="67"/>
+      <c r="D61" s="67">
+        <v>10</v>
+      </c>
       <c r="E61" s="67"/>
       <c r="F61" s="67"/>
       <c r="G61" s="67"/>
@@ -20949,7 +21019,9 @@
       <c r="M61" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="N61" s="67"/>
+      <c r="N61" s="67">
+        <v>10</v>
+      </c>
       <c r="O61" s="67" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
@@ -20978,7 +21050,9 @@
       <c r="C62" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D62" s="67"/>
+      <c r="D62" s="67">
+        <v>10</v>
+      </c>
       <c r="E62" s="67"/>
       <c r="F62" s="67"/>
       <c r="G62" s="67"/>
@@ -20996,7 +21070,9 @@
       <c r="M62" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="N62" s="67"/>
+      <c r="N62" s="67">
+        <v>10</v>
+      </c>
       <c r="O62" s="67" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
@@ -21025,7 +21101,9 @@
       <c r="C63" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D63" s="67"/>
+      <c r="D63" s="67">
+        <v>10</v>
+      </c>
       <c r="E63" s="67"/>
       <c r="F63" s="67"/>
       <c r="G63" s="67"/>
@@ -21043,7 +21121,9 @@
       <c r="M63" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="N63" s="67"/>
+      <c r="N63" s="67">
+        <v>10</v>
+      </c>
       <c r="O63" s="67" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
@@ -21072,7 +21152,9 @@
       <c r="C64" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D64" s="67"/>
+      <c r="D64" s="67">
+        <v>10</v>
+      </c>
       <c r="E64" s="67"/>
       <c r="F64" s="67"/>
       <c r="G64" s="67"/>
@@ -21090,7 +21172,9 @@
       <c r="M64" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="N64" s="67"/>
+      <c r="N64" s="67">
+        <v>10</v>
+      </c>
       <c r="O64" s="67" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
@@ -21119,7 +21203,9 @@
       <c r="C65" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D65" s="67"/>
+      <c r="D65" s="67">
+        <v>10</v>
+      </c>
       <c r="E65" s="67"/>
       <c r="F65" s="67"/>
       <c r="G65" s="67"/>
@@ -21137,7 +21223,9 @@
       <c r="M65" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="N65" s="67"/>
+      <c r="N65" s="67">
+        <v>10</v>
+      </c>
       <c r="O65" s="67" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
@@ -21166,7 +21254,9 @@
       <c r="C66" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D66" s="67"/>
+      <c r="D66" s="67">
+        <v>10</v>
+      </c>
       <c r="E66" s="67"/>
       <c r="F66" s="67"/>
       <c r="G66" s="67"/>
@@ -21184,7 +21274,9 @@
       <c r="M66" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="N66" s="67"/>
+      <c r="N66" s="67">
+        <v>10</v>
+      </c>
       <c r="O66" s="67" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
@@ -21213,7 +21305,9 @@
       <c r="C67" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D67" s="67"/>
+      <c r="D67" s="67">
+        <v>10</v>
+      </c>
       <c r="E67" s="67"/>
       <c r="F67" s="67"/>
       <c r="G67" s="67"/>
@@ -21231,7 +21325,9 @@
       <c r="M67" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="N67" s="67"/>
+      <c r="N67" s="67">
+        <v>10</v>
+      </c>
       <c r="O67" s="67" t="str">
         <f t="shared" ref="O67:O130" si="4">IF(OR(A67=K67, A67="", K67=""),"Yes","No")</f>
         <v>Yes</v>
@@ -21260,7 +21356,9 @@
       <c r="C68" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D68" s="67"/>
+      <c r="D68" s="67" t="s">
+        <v>823</v>
+      </c>
       <c r="E68" s="67"/>
       <c r="F68" s="67"/>
       <c r="G68" s="67"/>
@@ -21278,7 +21376,9 @@
       <c r="M68" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="N68" s="67"/>
+      <c r="N68" s="67" t="s">
+        <v>823</v>
+      </c>
       <c r="O68" s="67" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
@@ -21307,7 +21407,9 @@
       <c r="C69" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D69" s="67"/>
+      <c r="D69" s="67" t="s">
+        <v>823</v>
+      </c>
       <c r="E69" s="67"/>
       <c r="F69" s="67"/>
       <c r="G69" s="67"/>
@@ -21325,7 +21427,9 @@
       <c r="M69" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="N69" s="67"/>
+      <c r="N69" s="67" t="s">
+        <v>823</v>
+      </c>
       <c r="O69" s="67" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
@@ -21354,7 +21458,9 @@
       <c r="C70" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D70" s="67"/>
+      <c r="D70" s="67" t="s">
+        <v>823</v>
+      </c>
       <c r="E70" s="67"/>
       <c r="F70" s="67"/>
       <c r="G70" s="67"/>
@@ -21372,7 +21478,9 @@
       <c r="M70" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="N70" s="67"/>
+      <c r="N70" s="67" t="s">
+        <v>823</v>
+      </c>
       <c r="O70" s="67" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
@@ -21401,7 +21509,9 @@
       <c r="C71" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D71" s="67"/>
+      <c r="D71" s="67" t="s">
+        <v>823</v>
+      </c>
       <c r="E71" s="67"/>
       <c r="F71" s="67"/>
       <c r="G71" s="67"/>
@@ -21419,7 +21529,9 @@
       <c r="M71" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="N71" s="67"/>
+      <c r="N71" s="67" t="s">
+        <v>823</v>
+      </c>
       <c r="O71" s="67" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
@@ -21466,7 +21578,7 @@
         <v>259</v>
       </c>
       <c r="M72" s="67" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N72" s="67">
         <v>8</v>
@@ -21481,7 +21593,7 @@
       </c>
       <c r="Q72" s="67" t="str">
         <f t="shared" si="6"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R72" s="67" t="str">
         <f t="shared" si="7"/>
@@ -21705,7 +21817,7 @@
         <v>264</v>
       </c>
       <c r="M77" s="67" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N77" s="67">
         <v>1</v>
@@ -21720,7 +21832,7 @@
       </c>
       <c r="Q77" s="67" t="str">
         <f t="shared" si="6"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R77" s="67" t="str">
         <f t="shared" si="7"/>
@@ -21756,7 +21868,7 @@
         <v>265</v>
       </c>
       <c r="M78" s="67" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N78" s="67">
         <v>8</v>
@@ -21771,7 +21883,7 @@
       </c>
       <c r="Q78" s="67" t="str">
         <f t="shared" si="6"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R78" s="67" t="str">
         <f t="shared" si="7"/>
@@ -21807,7 +21919,7 @@
         <v>266</v>
       </c>
       <c r="M79" s="67" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N79" s="67">
         <v>10</v>
@@ -21822,7 +21934,7 @@
       </c>
       <c r="Q79" s="67" t="str">
         <f t="shared" si="6"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R79" s="67" t="str">
         <f t="shared" si="7"/>
@@ -21887,7 +21999,9 @@
       <c r="C81" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D81" s="67"/>
+      <c r="D81" s="67">
+        <v>10</v>
+      </c>
       <c r="E81" s="67"/>
       <c r="F81" s="67"/>
       <c r="G81" s="67"/>
@@ -21905,7 +22019,9 @@
       <c r="M81" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="N81" s="67"/>
+      <c r="N81" s="67">
+        <v>10</v>
+      </c>
       <c r="O81" s="67" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
@@ -22651,7 +22767,9 @@
       <c r="C95" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D95" s="20"/>
+      <c r="D95" s="20" t="s">
+        <v>823</v>
+      </c>
       <c r="E95" s="20" t="s">
         <v>782</v>
       </c>
@@ -22710,7 +22828,9 @@
       <c r="C96" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D96" s="20"/>
+      <c r="D96" s="20" t="s">
+        <v>823</v>
+      </c>
       <c r="E96" s="20" t="s">
         <v>782</v>
       </c>
@@ -24704,7 +24824,9 @@
       <c r="C132" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D132" s="1"/>
+      <c r="D132" s="1" t="s">
+        <v>823</v>
+      </c>
       <c r="E132" s="1" t="s">
         <v>782</v>
       </c>
@@ -24717,7 +24839,9 @@
       <c r="H132" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I132" s="1"/>
+      <c r="I132" s="1" t="s">
+        <v>823</v>
+      </c>
       <c r="J132" s="1" t="s">
         <v>782</v>
       </c>
@@ -24759,7 +24883,9 @@
       <c r="C133" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D133" s="1"/>
+      <c r="D133" s="1" t="s">
+        <v>823</v>
+      </c>
       <c r="E133" s="1" t="s">
         <v>782</v>
       </c>
@@ -24772,7 +24898,9 @@
       <c r="H133" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I133" s="1"/>
+      <c r="I133" s="1" t="s">
+        <v>823</v>
+      </c>
       <c r="J133" s="1" t="s">
         <v>782</v>
       </c>
@@ -24823,7 +24951,9 @@
       <c r="H134" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I134" s="1"/>
+      <c r="I134" s="1" t="s">
+        <v>823</v>
+      </c>
       <c r="J134" s="1" t="s">
         <v>782</v>
       </c>
@@ -24874,7 +25004,9 @@
       <c r="H135" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I135" s="1"/>
+      <c r="I135" s="1" t="s">
+        <v>823</v>
+      </c>
       <c r="J135" s="1" t="s">
         <v>782</v>
       </c>
@@ -24925,7 +25057,9 @@
       <c r="H136" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I136" s="1"/>
+      <c r="I136" s="1" t="s">
+        <v>823</v>
+      </c>
       <c r="J136" s="1" t="s">
         <v>782</v>
       </c>
@@ -24976,7 +25110,9 @@
       <c r="H137" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I137" s="1"/>
+      <c r="I137" s="1" t="s">
+        <v>823</v>
+      </c>
       <c r="J137" s="1" t="s">
         <v>782</v>
       </c>
@@ -25031,7 +25167,9 @@
       <c r="H138" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I138" s="1"/>
+      <c r="I138" s="1" t="s">
+        <v>823</v>
+      </c>
       <c r="J138" s="1" t="s">
         <v>782</v>
       </c>
@@ -25086,7 +25224,9 @@
       <c r="H139" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I139" s="1"/>
+      <c r="I139" s="1" t="s">
+        <v>823</v>
+      </c>
       <c r="J139" s="1" t="s">
         <v>782</v>
       </c>
@@ -25532,7 +25672,9 @@
       <c r="H147" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I147" s="1"/>
+      <c r="I147" s="1" t="s">
+        <v>823</v>
+      </c>
       <c r="J147" s="1" t="s">
         <v>782</v>
       </c>
@@ -26015,7 +26157,9 @@
       <c r="C157" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="D157" s="53"/>
+      <c r="D157" s="53">
+        <v>10</v>
+      </c>
       <c r="E157" s="20"/>
       <c r="F157" s="20"/>
       <c r="G157" s="20"/>
@@ -26357,7 +26501,9 @@
       <c r="H164" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I164" s="1"/>
+      <c r="I164" s="1" t="s">
+        <v>823</v>
+      </c>
       <c r="J164" s="1" t="s">
         <v>782</v>
       </c>
@@ -31432,7 +31578,9 @@
       <c r="C256" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D256" s="1"/>
+      <c r="D256" s="1">
+        <v>10</v>
+      </c>
       <c r="E256" s="1" t="s">
         <v>782</v>
       </c>
@@ -31445,7 +31593,9 @@
       <c r="H256" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I256" s="1"/>
+      <c r="I256" s="1">
+        <v>12</v>
+      </c>
       <c r="J256" s="1" t="s">
         <v>782</v>
       </c>
@@ -31458,7 +31608,9 @@
       <c r="M256" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N256" s="1"/>
+      <c r="N256" s="1">
+        <v>12</v>
+      </c>
       <c r="O256" s="20" t="str">
         <f t="shared" si="16"/>
         <v>Yes</v>
@@ -31473,7 +31625,7 @@
       </c>
       <c r="R256" s="20" t="str">
         <f t="shared" si="19"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="S256" s="18"/>
     </row>
@@ -31498,7 +31650,9 @@
       <c r="H257" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I257" s="1"/>
+      <c r="I257" s="1">
+        <v>10</v>
+      </c>
       <c r="J257" s="1" t="s">
         <v>782</v>
       </c>
@@ -31511,7 +31665,9 @@
       <c r="M257" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N257" s="1"/>
+      <c r="N257" s="1">
+        <v>10</v>
+      </c>
       <c r="O257" s="20" t="str">
         <f t="shared" ref="O257:R259" si="20">IF(OR(A257=K257, A257="", K257=""),"Yes","No")</f>
         <v>Yes</v>
@@ -31549,7 +31705,9 @@
       <c r="H258" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I258" s="1"/>
+      <c r="I258" s="1">
+        <v>10</v>
+      </c>
       <c r="J258" s="1" t="s">
         <v>782</v>
       </c>
@@ -31562,7 +31720,9 @@
       <c r="M258" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N258" s="1"/>
+      <c r="N258" s="1">
+        <v>10</v>
+      </c>
       <c r="O258" s="20" t="str">
         <f t="shared" si="20"/>
         <v>Yes</v>
@@ -32216,7 +32376,9 @@
       <c r="H271" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I271" s="31"/>
+      <c r="I271" s="31">
+        <v>10</v>
+      </c>
       <c r="J271" s="31" t="s">
         <v>782</v>
       </c>
@@ -32229,7 +32391,9 @@
       <c r="M271" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="N271" s="31"/>
+      <c r="N271" s="31">
+        <v>12</v>
+      </c>
       <c r="O271" s="31" t="str">
         <f t="shared" si="21"/>
         <v>Yes</v>
@@ -32265,7 +32429,9 @@
       <c r="H272" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I272" s="31"/>
+      <c r="I272" s="31">
+        <v>10</v>
+      </c>
       <c r="J272" s="31" t="s">
         <v>782</v>
       </c>
@@ -32278,7 +32444,9 @@
       <c r="M272" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="N272" s="31"/>
+      <c r="N272" s="31">
+        <v>10</v>
+      </c>
       <c r="O272" s="31" t="str">
         <f t="shared" si="21"/>
         <v>Yes</v>
@@ -32314,7 +32482,9 @@
       <c r="H273" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I273" s="31"/>
+      <c r="I273" s="31">
+        <v>10</v>
+      </c>
       <c r="J273" s="31" t="s">
         <v>782</v>
       </c>
@@ -32327,7 +32497,9 @@
       <c r="M273" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="N273" s="31"/>
+      <c r="N273" s="31">
+        <v>10</v>
+      </c>
       <c r="O273" s="31" t="str">
         <f t="shared" si="21"/>
         <v>Yes</v>
@@ -32843,7 +33015,9 @@
       <c r="C285" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D285" s="1"/>
+      <c r="D285" s="1" t="s">
+        <v>823</v>
+      </c>
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
@@ -32861,7 +33035,9 @@
       <c r="M285" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N285" s="1"/>
+      <c r="N285" s="1" t="s">
+        <v>823</v>
+      </c>
       <c r="O285" s="20" t="str">
         <f t="shared" si="16"/>
         <v>Yes</v>
@@ -32890,7 +33066,9 @@
       <c r="C286" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D286" s="1"/>
+      <c r="D286" s="1" t="s">
+        <v>838</v>
+      </c>
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
@@ -32908,7 +33086,9 @@
       <c r="M286" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N286" s="1"/>
+      <c r="N286" s="1" t="s">
+        <v>838</v>
+      </c>
       <c r="O286" s="20" t="str">
         <f t="shared" si="16"/>
         <v>Yes</v>
@@ -32937,7 +33117,9 @@
       <c r="C287" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D287" s="1"/>
+      <c r="D287" s="1" t="s">
+        <v>823</v>
+      </c>
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
@@ -32955,7 +33137,9 @@
       <c r="M287" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N287" s="1"/>
+      <c r="N287" s="1" t="s">
+        <v>823</v>
+      </c>
       <c r="O287" s="20" t="str">
         <f t="shared" si="16"/>
         <v>Yes</v>
@@ -33211,7 +33395,7 @@
         <v>130</v>
       </c>
       <c r="N292" s="20">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="O292" s="20" t="str">
         <f t="shared" si="16"/>
@@ -33227,7 +33411,7 @@
       </c>
       <c r="R292" s="20" t="str">
         <f t="shared" si="19"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="S292" s="23"/>
     </row>
@@ -34117,15 +34301,11 @@
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
       <c r="I309" s="1"/>
-      <c r="J309" s="1" t="s">
-        <v>781</v>
-      </c>
+      <c r="J309" s="1"/>
       <c r="K309" s="1"/>
       <c r="L309" s="1"/>
       <c r="M309" s="1"/>
-      <c r="N309" s="1">
-        <v>0</v>
-      </c>
+      <c r="N309" s="1"/>
       <c r="O309" s="20" t="str">
         <f t="shared" si="16"/>
         <v>Yes</v>
@@ -34162,15 +34342,11 @@
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
       <c r="I310" s="1"/>
-      <c r="J310" s="1" t="s">
-        <v>781</v>
-      </c>
+      <c r="J310" s="1"/>
       <c r="K310" s="1"/>
       <c r="L310" s="1"/>
       <c r="M310" s="1"/>
-      <c r="N310" s="1">
-        <v>0</v>
-      </c>
+      <c r="N310" s="1"/>
       <c r="O310" s="20" t="str">
         <f t="shared" si="16"/>
         <v>Yes</v>
@@ -34207,15 +34383,11 @@
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
       <c r="I311" s="1"/>
-      <c r="J311" s="1" t="s">
-        <v>781</v>
-      </c>
+      <c r="J311" s="1"/>
       <c r="K311" s="1"/>
       <c r="L311" s="1"/>
       <c r="M311" s="1"/>
-      <c r="N311" s="1">
-        <v>0</v>
-      </c>
+      <c r="N311" s="1"/>
       <c r="O311" s="20" t="str">
         <f t="shared" si="16"/>
         <v>Yes</v>
@@ -34230,7 +34402,7 @@
       </c>
       <c r="R311" s="20" t="str">
         <f t="shared" si="19"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="S311" s="18"/>
     </row>
@@ -34250,15 +34422,11 @@
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
       <c r="I312" s="1"/>
-      <c r="J312" s="1" t="s">
-        <v>781</v>
-      </c>
+      <c r="J312" s="1"/>
       <c r="K312" s="1"/>
       <c r="L312" s="1"/>
       <c r="M312" s="1"/>
-      <c r="N312" s="1">
-        <v>0</v>
-      </c>
+      <c r="N312" s="1"/>
       <c r="O312" s="20" t="str">
         <f t="shared" si="16"/>
         <v>Yes</v>
@@ -34293,15 +34461,11 @@
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
       <c r="I313" s="1"/>
-      <c r="J313" s="1" t="s">
-        <v>781</v>
-      </c>
+      <c r="J313" s="1"/>
       <c r="K313" s="1"/>
       <c r="L313" s="1"/>
       <c r="M313" s="1"/>
-      <c r="N313" s="1">
-        <v>0</v>
-      </c>
+      <c r="N313" s="1"/>
       <c r="O313" s="20" t="str">
         <f t="shared" si="16"/>
         <v>Yes</v>
@@ -34331,24 +34495,24 @@
         <v>0</v>
       </c>
       <c r="D314" s="20"/>
-      <c r="E314" s="20" t="s">
-        <v>781</v>
-      </c>
+      <c r="E314" s="20"/>
       <c r="F314" s="20"/>
       <c r="G314" s="20"/>
       <c r="H314" s="20"/>
-      <c r="I314" s="20">
-        <v>0</v>
-      </c>
+      <c r="I314" s="20"/>
       <c r="J314" s="20" t="s">
         <v>781</v>
       </c>
-      <c r="K314" s="20"/>
-      <c r="L314" s="20"/>
-      <c r="M314" s="20"/>
-      <c r="N314" s="20">
-        <v>0</v>
-      </c>
+      <c r="K314" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="L314" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="M314" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N314" s="20"/>
       <c r="O314" s="20" t="str">
         <f t="shared" si="16"/>
         <v>Yes</v>
@@ -34378,24 +34542,24 @@
         <v>0</v>
       </c>
       <c r="D315" s="20"/>
-      <c r="E315" s="20" t="s">
-        <v>781</v>
-      </c>
+      <c r="E315" s="20"/>
       <c r="F315" s="20"/>
       <c r="G315" s="20"/>
       <c r="H315" s="20"/>
-      <c r="I315" s="20">
-        <v>0</v>
-      </c>
+      <c r="I315" s="20"/>
       <c r="J315" s="20" t="s">
         <v>781</v>
       </c>
-      <c r="K315" s="20"/>
-      <c r="L315" s="20"/>
-      <c r="M315" s="20"/>
-      <c r="N315" s="20">
-        <v>0</v>
-      </c>
+      <c r="K315" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="L315" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="M315" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N315" s="20"/>
       <c r="O315" s="20" t="str">
         <f t="shared" si="16"/>
         <v>Yes</v>
@@ -34425,24 +34589,24 @@
         <v>4</v>
       </c>
       <c r="D316" s="20"/>
-      <c r="E316" s="20" t="s">
-        <v>781</v>
-      </c>
+      <c r="E316" s="20"/>
       <c r="F316" s="20"/>
       <c r="G316" s="20"/>
       <c r="H316" s="20"/>
-      <c r="I316" s="20">
-        <v>0</v>
-      </c>
+      <c r="I316" s="20"/>
       <c r="J316" s="20" t="s">
         <v>781</v>
       </c>
-      <c r="K316" s="20"/>
-      <c r="L316" s="20"/>
-      <c r="M316" s="20"/>
-      <c r="N316" s="20">
-        <v>0</v>
-      </c>
+      <c r="K316" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="L316" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="M316" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N316" s="20"/>
       <c r="O316" s="20" t="str">
         <f t="shared" si="16"/>
         <v>Yes</v>
@@ -34472,24 +34636,24 @@
         <v>4</v>
       </c>
       <c r="D317" s="20"/>
-      <c r="E317" s="20" t="s">
-        <v>781</v>
-      </c>
+      <c r="E317" s="20"/>
       <c r="F317" s="20"/>
       <c r="G317" s="20"/>
       <c r="H317" s="20"/>
-      <c r="I317" s="20">
-        <v>0</v>
-      </c>
+      <c r="I317" s="20"/>
       <c r="J317" s="20" t="s">
         <v>781</v>
       </c>
-      <c r="K317" s="20"/>
-      <c r="L317" s="20"/>
-      <c r="M317" s="20"/>
-      <c r="N317" s="20">
-        <v>0</v>
-      </c>
+      <c r="K317" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="L317" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="M317" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N317" s="20"/>
       <c r="O317" s="20" t="str">
         <f t="shared" si="16"/>
         <v>Yes</v>
@@ -35446,7 +35610,9 @@
       <c r="C334" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D334" s="1"/>
+      <c r="D334" s="1">
+        <v>38</v>
+      </c>
       <c r="E334" s="1" t="s">
         <v>782</v>
       </c>
@@ -35459,7 +35625,9 @@
       <c r="H334" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I334" s="1"/>
+      <c r="I334" s="1">
+        <v>38</v>
+      </c>
       <c r="J334" s="1" t="s">
         <v>782</v>
       </c>
@@ -35501,7 +35669,9 @@
       <c r="C335" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D335" s="1"/>
+      <c r="D335" s="1">
+        <v>38</v>
+      </c>
       <c r="E335" s="1" t="s">
         <v>782</v>
       </c>
@@ -35514,7 +35684,9 @@
       <c r="H335" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I335" s="1"/>
+      <c r="I335" s="1">
+        <v>38</v>
+      </c>
       <c r="J335" s="1" t="s">
         <v>782</v>
       </c>
@@ -35527,7 +35699,9 @@
       <c r="M335" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N335" s="1"/>
+      <c r="N335" s="1">
+        <v>38</v>
+      </c>
       <c r="O335" s="20" t="str">
         <f t="shared" si="22"/>
         <v>Yes</v>
@@ -35582,7 +35756,9 @@
       <c r="M336" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N336" s="1"/>
+      <c r="N336" s="1">
+        <v>38</v>
+      </c>
       <c r="O336" s="20" t="str">
         <f t="shared" si="22"/>
         <v>Yes</v>
@@ -37213,7 +37389,9 @@
       <c r="H366" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I366" s="20"/>
+      <c r="I366" s="20">
+        <v>10</v>
+      </c>
       <c r="J366" s="20" t="s">
         <v>782</v>
       </c>
@@ -37226,7 +37404,9 @@
       <c r="M366" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N366" s="20"/>
+      <c r="N366" s="20">
+        <v>10</v>
+      </c>
       <c r="O366" s="20" t="str">
         <f t="shared" ref="O366:R370" si="27">IF(OR(A366=K366, A366="", K366=""),"Yes","No")</f>
         <v>Yes</v>
@@ -37241,7 +37421,7 @@
       </c>
       <c r="R366" s="20" t="str">
         <f t="shared" si="27"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="S366" s="23"/>
     </row>
@@ -37371,7 +37551,9 @@
       <c r="C369" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D369" s="20"/>
+      <c r="D369" s="20">
+        <v>1</v>
+      </c>
       <c r="E369" s="20" t="s">
         <v>782</v>
       </c>
@@ -37384,7 +37566,9 @@
       <c r="H369" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I369" s="20"/>
+      <c r="I369" s="20">
+        <v>1</v>
+      </c>
       <c r="J369" s="20" t="s">
         <v>782</v>
       </c>
@@ -37397,7 +37581,9 @@
       <c r="M369" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N369" s="20"/>
+      <c r="N369" s="20">
+        <v>1</v>
+      </c>
       <c r="O369" s="20" t="str">
         <f t="shared" si="27"/>
         <v>Yes</v>
@@ -37481,7 +37667,9 @@
       <c r="C371" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D371" s="20"/>
+      <c r="D371" s="20">
+        <v>1</v>
+      </c>
       <c r="E371" s="20" t="s">
         <v>782</v>
       </c>
@@ -37494,7 +37682,9 @@
       <c r="H371" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I371" s="20"/>
+      <c r="I371" s="20">
+        <v>1</v>
+      </c>
       <c r="J371" s="20" t="s">
         <v>782</v>
       </c>
@@ -37507,7 +37697,9 @@
       <c r="M371" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N371" s="20"/>
+      <c r="N371" s="20">
+        <v>1</v>
+      </c>
       <c r="O371" s="20" t="str">
         <f t="shared" si="22"/>
         <v>Yes</v>
@@ -37884,7 +38076,9 @@
       <c r="C378" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D378" s="20"/>
+      <c r="D378" s="20">
+        <v>10</v>
+      </c>
       <c r="E378" s="20" t="s">
         <v>782</v>
       </c>
@@ -37897,7 +38091,9 @@
       <c r="H378" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I378" s="20"/>
+      <c r="I378" s="20">
+        <v>10</v>
+      </c>
       <c r="J378" s="20" t="s">
         <v>782</v>
       </c>
@@ -37910,7 +38106,9 @@
       <c r="M378" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N378" s="20"/>
+      <c r="N378" s="20">
+        <v>10</v>
+      </c>
       <c r="O378" s="20" t="str">
         <f t="shared" si="22"/>
         <v>Yes</v>
@@ -38226,7 +38424,9 @@
       <c r="C384" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D384" s="20"/>
+      <c r="D384" s="20">
+        <v>1</v>
+      </c>
       <c r="E384" s="20" t="s">
         <v>782</v>
       </c>
@@ -38656,7 +38856,9 @@
       <c r="C392" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D392" s="20"/>
+      <c r="D392" s="20">
+        <v>10</v>
+      </c>
       <c r="E392" s="20"/>
       <c r="F392" s="20"/>
       <c r="G392" s="20"/>
@@ -38674,7 +38876,9 @@
       <c r="M392" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N392" s="20"/>
+      <c r="N392" s="20">
+        <v>10</v>
+      </c>
       <c r="O392" s="20" t="str">
         <f t="shared" si="29"/>
         <v>Yes</v>
@@ -38721,7 +38925,7 @@
         <v>220</v>
       </c>
       <c r="M393" s="20" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N393" s="20">
         <v>3</v>
@@ -38736,7 +38940,7 @@
       </c>
       <c r="Q393" s="20" t="str">
         <f t="shared" si="31"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R393" s="20" t="str">
         <f t="shared" si="32"/>
@@ -38772,7 +38976,7 @@
         <v>221</v>
       </c>
       <c r="M394" s="20" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N394" s="20">
         <v>12</v>
@@ -38787,7 +38991,7 @@
       </c>
       <c r="Q394" s="20" t="str">
         <f t="shared" si="31"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R394" s="20" t="str">
         <f t="shared" si="32"/>
@@ -38823,7 +39027,7 @@
         <v>222</v>
       </c>
       <c r="M395" s="20" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N395" s="20">
         <v>10</v>
@@ -38838,7 +39042,7 @@
       </c>
       <c r="Q395" s="20" t="str">
         <f t="shared" si="31"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R395" s="20" t="str">
         <f t="shared" si="32"/>
@@ -38874,7 +39078,7 @@
         <v>223</v>
       </c>
       <c r="M396" s="20" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N396" s="20">
         <v>10</v>
@@ -38889,7 +39093,7 @@
       </c>
       <c r="Q396" s="20" t="str">
         <f t="shared" si="31"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R396" s="20" t="str">
         <f t="shared" si="32"/>
@@ -38925,7 +39129,7 @@
         <v>224</v>
       </c>
       <c r="M397" s="20" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N397" s="20">
         <v>10</v>
@@ -38940,7 +39144,7 @@
       </c>
       <c r="Q397" s="20" t="str">
         <f t="shared" si="31"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R397" s="20" t="str">
         <f t="shared" si="32"/>
@@ -38958,7 +39162,9 @@
       <c r="C398" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D398" s="20"/>
+      <c r="D398" s="20">
+        <v>38</v>
+      </c>
       <c r="E398" s="20"/>
       <c r="F398" s="20"/>
       <c r="G398" s="20"/>
@@ -38976,7 +39182,9 @@
       <c r="M398" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N398" s="20"/>
+      <c r="N398" s="20">
+        <v>38</v>
+      </c>
       <c r="O398" s="20" t="str">
         <f t="shared" si="29"/>
         <v>Yes</v>
@@ -39023,7 +39231,7 @@
         <v>226</v>
       </c>
       <c r="M399" s="20" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N399" s="20">
         <v>8</v>
@@ -39038,7 +39246,7 @@
       </c>
       <c r="Q399" s="20" t="str">
         <f t="shared" si="31"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R399" s="20" t="str">
         <f t="shared" si="32"/>
@@ -39074,7 +39282,7 @@
         <v>227</v>
       </c>
       <c r="M400" s="20" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N400" s="20">
         <v>8</v>
@@ -39089,7 +39297,7 @@
       </c>
       <c r="Q400" s="20" t="str">
         <f t="shared" si="31"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R400" s="20" t="str">
         <f t="shared" si="32"/>
@@ -39125,7 +39333,7 @@
         <v>228</v>
       </c>
       <c r="M401" s="20" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N401" s="20">
         <v>5</v>
@@ -39140,7 +39348,7 @@
       </c>
       <c r="Q401" s="20" t="str">
         <f t="shared" si="31"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R401" s="20" t="str">
         <f t="shared" si="32"/>
@@ -39176,7 +39384,7 @@
         <v>229</v>
       </c>
       <c r="M402" s="20" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N402" s="20">
         <v>8</v>
@@ -39191,7 +39399,7 @@
       </c>
       <c r="Q402" s="20" t="str">
         <f t="shared" si="31"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R402" s="20" t="str">
         <f t="shared" si="32"/>
@@ -39227,7 +39435,7 @@
         <v>230</v>
       </c>
       <c r="M403" s="20" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N403" s="20">
         <v>8</v>
@@ -39242,7 +39450,7 @@
       </c>
       <c r="Q403" s="20" t="str">
         <f t="shared" si="31"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R403" s="20" t="str">
         <f t="shared" si="32"/>
@@ -39278,7 +39486,7 @@
         <v>231</v>
       </c>
       <c r="M404" s="20" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N404" s="20">
         <v>10</v>
@@ -39293,7 +39501,7 @@
       </c>
       <c r="Q404" s="20" t="str">
         <f t="shared" si="31"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R404" s="20" t="str">
         <f t="shared" si="32"/>
@@ -39311,7 +39519,9 @@
       <c r="C405" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D405" s="20"/>
+      <c r="D405" s="20" t="s">
+        <v>823</v>
+      </c>
       <c r="E405" s="20"/>
       <c r="F405" s="20"/>
       <c r="G405" s="20"/>
@@ -39329,7 +39539,9 @@
       <c r="M405" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N405" s="20"/>
+      <c r="N405" s="20" t="s">
+        <v>823</v>
+      </c>
       <c r="O405" s="20" t="str">
         <f t="shared" si="29"/>
         <v>Yes</v>
@@ -39376,7 +39588,7 @@
         <v>233</v>
       </c>
       <c r="M406" s="20" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N406" s="20">
         <v>8</v>
@@ -39391,7 +39603,7 @@
       </c>
       <c r="Q406" s="20" t="str">
         <f t="shared" si="31"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R406" s="20" t="str">
         <f t="shared" si="32"/>
@@ -39427,7 +39639,7 @@
         <v>234</v>
       </c>
       <c r="M407" s="20" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N407" s="20">
         <v>19</v>
@@ -39442,7 +39654,7 @@
       </c>
       <c r="Q407" s="20" t="str">
         <f t="shared" si="31"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R407" s="20" t="str">
         <f t="shared" si="32"/>
@@ -39478,7 +39690,7 @@
         <v>235</v>
       </c>
       <c r="M408" s="20" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N408" s="20">
         <v>10</v>
@@ -39493,7 +39705,7 @@
       </c>
       <c r="Q408" s="20" t="str">
         <f t="shared" si="31"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R408" s="20" t="str">
         <f t="shared" si="32"/>
@@ -39511,7 +39723,9 @@
       <c r="C409" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D409" s="20"/>
+      <c r="D409" s="20" t="s">
+        <v>823</v>
+      </c>
       <c r="E409" s="20"/>
       <c r="F409" s="20"/>
       <c r="G409" s="20"/>
@@ -39529,7 +39743,9 @@
       <c r="M409" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N409" s="20"/>
+      <c r="N409" s="20" t="s">
+        <v>823</v>
+      </c>
       <c r="O409" s="20" t="str">
         <f t="shared" si="29"/>
         <v>Yes</v>
@@ -39576,7 +39792,7 @@
         <v>237</v>
       </c>
       <c r="M410" s="20" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N410" s="20">
         <v>3</v>
@@ -39591,7 +39807,7 @@
       </c>
       <c r="Q410" s="20" t="str">
         <f t="shared" si="31"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R410" s="20" t="str">
         <f t="shared" si="32"/>
@@ -39627,7 +39843,7 @@
         <v>238</v>
       </c>
       <c r="M411" s="20" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N411" s="20">
         <v>10</v>
@@ -39642,7 +39858,7 @@
       </c>
       <c r="Q411" s="20" t="str">
         <f t="shared" si="31"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R411" s="20" t="str">
         <f t="shared" si="32"/>
@@ -39660,7 +39876,9 @@
       <c r="C412" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D412" s="20"/>
+      <c r="D412" s="20" t="s">
+        <v>823</v>
+      </c>
       <c r="E412" s="20"/>
       <c r="F412" s="20"/>
       <c r="G412" s="20"/>
@@ -39678,7 +39896,9 @@
       <c r="M412" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N412" s="20"/>
+      <c r="N412" s="20" t="s">
+        <v>823</v>
+      </c>
       <c r="O412" s="20" t="str">
         <f t="shared" si="29"/>
         <v>Yes</v>
@@ -39725,7 +39945,7 @@
         <v>240</v>
       </c>
       <c r="M413" s="20" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N413" s="20">
         <v>10</v>
@@ -39740,7 +39960,7 @@
       </c>
       <c r="Q413" s="20" t="str">
         <f t="shared" si="31"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R413" s="20" t="str">
         <f t="shared" si="32"/>
@@ -39776,7 +39996,7 @@
         <v>241</v>
       </c>
       <c r="M414" s="20" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N414" s="20">
         <v>10</v>
@@ -39791,7 +40011,7 @@
       </c>
       <c r="Q414" s="20" t="str">
         <f t="shared" si="31"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R414" s="20" t="str">
         <f t="shared" si="32"/>
@@ -39827,7 +40047,7 @@
         <v>242</v>
       </c>
       <c r="M415" s="20" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N415" s="20">
         <v>8</v>
@@ -39842,7 +40062,7 @@
       </c>
       <c r="Q415" s="20" t="str">
         <f t="shared" si="31"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R415" s="20" t="str">
         <f t="shared" si="32"/>
@@ -39878,7 +40098,7 @@
         <v>243</v>
       </c>
       <c r="M416" s="20" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N416" s="20">
         <v>10</v>
@@ -39893,7 +40113,7 @@
       </c>
       <c r="Q416" s="20" t="str">
         <f t="shared" si="31"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R416" s="20" t="str">
         <f t="shared" si="32"/>
@@ -39911,7 +40131,9 @@
       <c r="C417" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D417" s="20"/>
+      <c r="D417" s="20">
+        <v>10</v>
+      </c>
       <c r="E417" s="20"/>
       <c r="F417" s="20"/>
       <c r="G417" s="20"/>
@@ -39929,7 +40151,9 @@
       <c r="M417" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N417" s="20"/>
+      <c r="N417" s="20">
+        <v>10</v>
+      </c>
       <c r="O417" s="20" t="str">
         <f t="shared" si="29"/>
         <v>Yes</v>
@@ -39958,7 +40182,9 @@
       <c r="C418" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D418" s="20"/>
+      <c r="D418" s="20">
+        <v>10</v>
+      </c>
       <c r="E418" s="20"/>
       <c r="F418" s="20"/>
       <c r="G418" s="20"/>
@@ -39976,7 +40202,9 @@
       <c r="M418" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N418" s="20"/>
+      <c r="N418" s="20">
+        <v>10</v>
+      </c>
       <c r="O418" s="20" t="str">
         <f t="shared" si="29"/>
         <v>Yes</v>
@@ -40005,7 +40233,9 @@
       <c r="C419" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D419" s="20"/>
+      <c r="D419" s="20">
+        <v>10</v>
+      </c>
       <c r="E419" s="20"/>
       <c r="F419" s="20"/>
       <c r="G419" s="20"/>
@@ -40023,7 +40253,9 @@
       <c r="M419" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N419" s="20"/>
+      <c r="N419" s="20">
+        <v>10</v>
+      </c>
       <c r="O419" s="20" t="str">
         <f t="shared" si="29"/>
         <v>Yes</v>
@@ -40052,7 +40284,9 @@
       <c r="C420" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D420" s="20"/>
+      <c r="D420" s="20">
+        <v>10</v>
+      </c>
       <c r="E420" s="20"/>
       <c r="F420" s="20"/>
       <c r="G420" s="20"/>
@@ -40070,7 +40304,9 @@
       <c r="M420" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N420" s="20"/>
+      <c r="N420" s="20">
+        <v>10</v>
+      </c>
       <c r="O420" s="20" t="str">
         <f t="shared" si="29"/>
         <v>Yes</v>
@@ -40099,7 +40335,9 @@
       <c r="C421" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D421" s="20"/>
+      <c r="D421" s="20">
+        <v>10</v>
+      </c>
       <c r="E421" s="20"/>
       <c r="F421" s="20"/>
       <c r="G421" s="20"/>
@@ -40117,7 +40355,9 @@
       <c r="M421" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N421" s="20"/>
+      <c r="N421" s="20">
+        <v>10</v>
+      </c>
       <c r="O421" s="20" t="str">
         <f t="shared" si="29"/>
         <v>Yes</v>
@@ -40146,7 +40386,9 @@
       <c r="C422" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D422" s="20"/>
+      <c r="D422" s="20">
+        <v>10</v>
+      </c>
       <c r="E422" s="20"/>
       <c r="F422" s="20"/>
       <c r="G422" s="20"/>
@@ -40164,7 +40406,9 @@
       <c r="M422" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N422" s="20"/>
+      <c r="N422" s="20">
+        <v>10</v>
+      </c>
       <c r="O422" s="20" t="str">
         <f t="shared" si="29"/>
         <v>Yes</v>
@@ -40193,7 +40437,9 @@
       <c r="C423" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D423" s="20"/>
+      <c r="D423" s="20">
+        <v>10</v>
+      </c>
       <c r="E423" s="20"/>
       <c r="F423" s="20"/>
       <c r="G423" s="20"/>
@@ -40211,7 +40457,9 @@
       <c r="M423" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N423" s="20"/>
+      <c r="N423" s="20">
+        <v>10</v>
+      </c>
       <c r="O423" s="20" t="str">
         <f t="shared" si="29"/>
         <v>Yes</v>
@@ -40240,7 +40488,9 @@
       <c r="C424" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D424" s="20"/>
+      <c r="D424" s="20">
+        <v>10</v>
+      </c>
       <c r="E424" s="20"/>
       <c r="F424" s="20"/>
       <c r="G424" s="20"/>
@@ -40258,7 +40508,9 @@
       <c r="M424" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N424" s="20"/>
+      <c r="N424" s="20">
+        <v>10</v>
+      </c>
       <c r="O424" s="20" t="str">
         <f t="shared" si="29"/>
         <v>Yes</v>
@@ -40287,7 +40539,9 @@
       <c r="C425" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D425" s="20"/>
+      <c r="D425" s="20">
+        <v>10</v>
+      </c>
       <c r="E425" s="20"/>
       <c r="F425" s="20"/>
       <c r="G425" s="20"/>
@@ -40305,7 +40559,9 @@
       <c r="M425" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N425" s="20"/>
+      <c r="N425" s="20">
+        <v>10</v>
+      </c>
       <c r="O425" s="20" t="str">
         <f t="shared" si="29"/>
         <v>Yes</v>
@@ -40334,7 +40590,9 @@
       <c r="C426" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D426" s="20"/>
+      <c r="D426" s="20">
+        <v>10</v>
+      </c>
       <c r="E426" s="20"/>
       <c r="F426" s="20"/>
       <c r="G426" s="20"/>
@@ -40352,7 +40610,9 @@
       <c r="M426" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N426" s="20"/>
+      <c r="N426" s="20">
+        <v>10</v>
+      </c>
       <c r="O426" s="20" t="str">
         <f t="shared" si="29"/>
         <v>Yes</v>
@@ -40381,7 +40641,9 @@
       <c r="C427" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D427" s="20"/>
+      <c r="D427" s="20">
+        <v>10</v>
+      </c>
       <c r="E427" s="20"/>
       <c r="F427" s="20"/>
       <c r="G427" s="20"/>
@@ -40399,7 +40661,9 @@
       <c r="M427" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N427" s="20"/>
+      <c r="N427" s="20">
+        <v>10</v>
+      </c>
       <c r="O427" s="20" t="str">
         <f t="shared" si="29"/>
         <v>Yes</v>
@@ -40428,7 +40692,9 @@
       <c r="C428" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D428" s="20"/>
+      <c r="D428" s="20" t="s">
+        <v>823</v>
+      </c>
       <c r="E428" s="20"/>
       <c r="F428" s="20"/>
       <c r="G428" s="20"/>
@@ -40446,7 +40712,9 @@
       <c r="M428" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N428" s="20"/>
+      <c r="N428" s="20" t="s">
+        <v>823</v>
+      </c>
       <c r="O428" s="20" t="str">
         <f t="shared" si="29"/>
         <v>Yes</v>
@@ -40475,7 +40743,9 @@
       <c r="C429" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D429" s="20"/>
+      <c r="D429" s="20" t="s">
+        <v>823</v>
+      </c>
       <c r="E429" s="20"/>
       <c r="F429" s="20"/>
       <c r="G429" s="20"/>
@@ -40493,7 +40763,9 @@
       <c r="M429" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N429" s="20"/>
+      <c r="N429" s="20" t="s">
+        <v>823</v>
+      </c>
       <c r="O429" s="20" t="str">
         <f t="shared" si="29"/>
         <v>Yes</v>
@@ -40522,7 +40794,9 @@
       <c r="C430" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D430" s="20"/>
+      <c r="D430" s="20" t="s">
+        <v>823</v>
+      </c>
       <c r="E430" s="20"/>
       <c r="F430" s="20"/>
       <c r="G430" s="20"/>
@@ -40540,7 +40814,9 @@
       <c r="M430" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N430" s="20"/>
+      <c r="N430" s="20" t="s">
+        <v>823</v>
+      </c>
       <c r="O430" s="20" t="str">
         <f t="shared" si="29"/>
         <v>Yes</v>
@@ -40569,7 +40845,9 @@
       <c r="C431" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D431" s="20"/>
+      <c r="D431" s="20" t="s">
+        <v>823</v>
+      </c>
       <c r="E431" s="20"/>
       <c r="F431" s="20"/>
       <c r="G431" s="20"/>
@@ -40587,7 +40865,9 @@
       <c r="M431" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N431" s="20"/>
+      <c r="N431" s="20" t="s">
+        <v>823</v>
+      </c>
       <c r="O431" s="20" t="str">
         <f t="shared" si="29"/>
         <v>Yes</v>
@@ -40634,7 +40914,7 @@
         <v>259</v>
       </c>
       <c r="M432" s="20" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N432" s="20">
         <v>8</v>
@@ -40649,7 +40929,7 @@
       </c>
       <c r="Q432" s="20" t="str">
         <f t="shared" si="31"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R432" s="20" t="str">
         <f t="shared" si="32"/>
@@ -40667,7 +40947,9 @@
       <c r="C433" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D433" s="20"/>
+      <c r="D433" s="20" t="s">
+        <v>823</v>
+      </c>
       <c r="E433" s="20"/>
       <c r="F433" s="20"/>
       <c r="G433" s="20"/>
@@ -40685,7 +40967,9 @@
       <c r="M433" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N433" s="20"/>
+      <c r="N433" s="20" t="s">
+        <v>823</v>
+      </c>
       <c r="O433" s="20" t="str">
         <f t="shared" si="29"/>
         <v>Yes</v>
@@ -40714,7 +40998,9 @@
       <c r="C434" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D434" s="20"/>
+      <c r="D434" s="20" t="s">
+        <v>823</v>
+      </c>
       <c r="E434" s="20"/>
       <c r="F434" s="20"/>
       <c r="G434" s="20"/>
@@ -40732,7 +41018,9 @@
       <c r="M434" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N434" s="20"/>
+      <c r="N434" s="20" t="s">
+        <v>823</v>
+      </c>
       <c r="O434" s="20" t="str">
         <f t="shared" si="29"/>
         <v>Yes</v>
@@ -40761,7 +41049,9 @@
       <c r="C435" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D435" s="20"/>
+      <c r="D435" s="20" t="s">
+        <v>823</v>
+      </c>
       <c r="E435" s="20"/>
       <c r="F435" s="20"/>
       <c r="G435" s="20"/>
@@ -40779,7 +41069,9 @@
       <c r="M435" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N435" s="20"/>
+      <c r="N435" s="20" t="s">
+        <v>823</v>
+      </c>
       <c r="O435" s="20" t="str">
         <f t="shared" si="29"/>
         <v>Yes</v>
@@ -40808,7 +41100,9 @@
       <c r="C436" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D436" s="20"/>
+      <c r="D436" s="20" t="s">
+        <v>823</v>
+      </c>
       <c r="E436" s="20"/>
       <c r="F436" s="20"/>
       <c r="G436" s="20"/>
@@ -40826,7 +41120,9 @@
       <c r="M436" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N436" s="20"/>
+      <c r="N436" s="20" t="s">
+        <v>823</v>
+      </c>
       <c r="O436" s="20" t="str">
         <f t="shared" si="29"/>
         <v>Yes</v>
@@ -40873,7 +41169,7 @@
         <v>264</v>
       </c>
       <c r="M437" s="20" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N437" s="20">
         <v>1</v>
@@ -40888,7 +41184,7 @@
       </c>
       <c r="Q437" s="20" t="str">
         <f t="shared" si="31"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R437" s="20" t="str">
         <f t="shared" si="32"/>
@@ -40924,7 +41220,7 @@
         <v>265</v>
       </c>
       <c r="M438" s="20" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N438" s="20">
         <v>8</v>
@@ -40939,7 +41235,7 @@
       </c>
       <c r="Q438" s="20" t="str">
         <f t="shared" si="31"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R438" s="20" t="str">
         <f t="shared" si="32"/>
@@ -40975,7 +41271,7 @@
         <v>266</v>
       </c>
       <c r="M439" s="20" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="N439" s="20">
         <v>10</v>
@@ -40990,7 +41286,7 @@
       </c>
       <c r="Q439" s="20" t="str">
         <f t="shared" si="31"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="R439" s="20" t="str">
         <f t="shared" si="32"/>
@@ -43141,7 +43437,9 @@
       <c r="C479" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D479" s="20"/>
+      <c r="D479" s="20">
+        <v>1</v>
+      </c>
       <c r="E479" s="20" t="s">
         <v>782</v>
       </c>
@@ -43167,7 +43465,9 @@
       <c r="M479" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N479" s="20"/>
+      <c r="N479" s="20">
+        <v>1</v>
+      </c>
       <c r="O479" s="20" t="str">
         <f t="shared" si="33"/>
         <v>Yes</v>
@@ -43251,7 +43551,9 @@
       <c r="C481" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D481" s="20"/>
+      <c r="D481" s="20">
+        <v>1</v>
+      </c>
       <c r="E481" s="20" t="s">
         <v>782</v>
       </c>
@@ -43277,7 +43579,9 @@
       <c r="M481" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N481" s="20"/>
+      <c r="N481" s="20">
+        <v>1</v>
+      </c>
       <c r="O481" s="20" t="str">
         <f t="shared" ref="O481:O489" si="37">IF(OR(A481=K481, A481="", K481=""),"Yes","No")</f>
         <v>Yes</v>
@@ -43654,7 +43958,9 @@
       <c r="C488" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D488" s="20"/>
+      <c r="D488" s="20">
+        <v>10</v>
+      </c>
       <c r="E488" s="20" t="s">
         <v>782</v>
       </c>
@@ -43680,7 +43986,9 @@
       <c r="M488" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N488" s="20"/>
+      <c r="N488" s="20">
+        <v>10</v>
+      </c>
       <c r="O488" s="20" t="str">
         <f t="shared" si="37"/>
         <v>Yes</v>
@@ -44599,7 +44907,9 @@
       <c r="C505" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D505" s="20"/>
+      <c r="D505" s="20">
+        <v>10</v>
+      </c>
       <c r="E505" s="20" t="s">
         <v>782</v>
       </c>
@@ -44612,7 +44922,9 @@
       <c r="H505" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I505" s="20"/>
+      <c r="I505" s="20">
+        <v>10</v>
+      </c>
       <c r="J505" s="20" t="s">
         <v>782</v>
       </c>
@@ -44625,7 +44937,9 @@
       <c r="M505" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N505" s="20"/>
+      <c r="N505" s="20">
+        <v>10</v>
+      </c>
       <c r="O505" s="20" t="str">
         <f t="shared" si="33"/>
         <v>Yes</v>
@@ -46831,7 +47145,9 @@
       <c r="C545" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D545" s="12"/>
+      <c r="D545" s="12">
+        <v>10</v>
+      </c>
       <c r="E545" s="12" t="s">
         <v>782</v>
       </c>
@@ -46908,7 +47224,9 @@
       <c r="M546" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="N546" s="12"/>
+      <c r="N546" s="12">
+        <v>10</v>
+      </c>
       <c r="O546" s="20" t="str">
         <f t="shared" si="47"/>
         <v>Yes</v>
@@ -46959,7 +47277,9 @@
       <c r="M547" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="N547" s="12"/>
+      <c r="N547" s="12" t="s">
+        <v>823</v>
+      </c>
       <c r="O547" s="20" t="str">
         <f t="shared" si="47"/>
         <v>Yes</v>
@@ -47010,7 +47330,9 @@
       <c r="M548" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="N548" s="12"/>
+      <c r="N548" s="12" t="s">
+        <v>823</v>
+      </c>
       <c r="O548" s="20" t="str">
         <f t="shared" si="47"/>
         <v>Yes</v>
@@ -47061,7 +47383,9 @@
       <c r="M549" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="N549" s="12"/>
+      <c r="N549" s="12" t="s">
+        <v>823</v>
+      </c>
       <c r="O549" s="20" t="str">
         <f t="shared" si="47"/>
         <v>Yes</v>
@@ -47112,7 +47436,9 @@
       <c r="M550" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="N550" s="12"/>
+      <c r="N550" s="12" t="s">
+        <v>823</v>
+      </c>
       <c r="O550" s="20" t="str">
         <f t="shared" si="47"/>
         <v>Yes</v>
@@ -47163,7 +47489,9 @@
       <c r="M551" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="N551" s="12"/>
+      <c r="N551" s="12" t="s">
+        <v>823</v>
+      </c>
       <c r="O551" s="20" t="str">
         <f t="shared" si="47"/>
         <v>Yes</v>
@@ -47333,7 +47661,9 @@
       <c r="C555" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D555" s="12"/>
+      <c r="D555" s="12" t="s">
+        <v>823</v>
+      </c>
       <c r="E555" s="12"/>
       <c r="F555" s="12"/>
       <c r="G555" s="12"/>
@@ -47427,7 +47757,9 @@
       <c r="C557" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D557" s="12"/>
+      <c r="D557" s="12" t="s">
+        <v>823</v>
+      </c>
       <c r="E557" s="12"/>
       <c r="F557" s="12"/>
       <c r="G557" s="12"/>
@@ -47445,7 +47777,9 @@
       <c r="M557" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="N557" s="12"/>
+      <c r="N557" s="12" t="s">
+        <v>823</v>
+      </c>
       <c r="O557" s="20" t="str">
         <f t="shared" si="43"/>
         <v>Yes</v>
@@ -47492,7 +47826,9 @@
       <c r="M558" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="N558" s="12"/>
+      <c r="N558" s="12" t="s">
+        <v>823</v>
+      </c>
       <c r="O558" s="20" t="str">
         <f t="shared" si="43"/>
         <v>Yes</v>
@@ -48812,13 +49148,13 @@
         <v>450</v>
       </c>
       <c r="B589" s="59" t="s">
-        <v>451</v>
+        <v>424</v>
       </c>
       <c r="C589" s="59" t="s">
         <v>145</v>
       </c>
       <c r="D589" s="59">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E589" s="59" t="s">
         <v>782</v>
@@ -48827,12 +49163,14 @@
         <v>450</v>
       </c>
       <c r="G589" s="59" t="s">
-        <v>451</v>
+        <v>424</v>
       </c>
       <c r="H589" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="I589" s="59"/>
+        <v>145</v>
+      </c>
+      <c r="I589" s="59">
+        <v>10</v>
+      </c>
       <c r="J589" s="59" t="s">
         <v>782</v>
       </c>
@@ -48840,27 +49178,29 @@
         <v>450</v>
       </c>
       <c r="L589" s="59" t="s">
-        <v>451</v>
+        <v>424</v>
       </c>
       <c r="M589" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="N589" s="59"/>
+        <v>145</v>
+      </c>
+      <c r="N589" s="59">
+        <v>10</v>
+      </c>
       <c r="O589" s="20" t="str">
-        <f t="shared" si="52"/>
+        <f>IF(OR(A589=K589, A589="", K589=""),"Yes","No")</f>
         <v>Yes</v>
       </c>
       <c r="P589" s="20" t="str">
-        <f t="shared" si="53"/>
+        <f>IF(OR(B589=L589, B589="", L589=""),"Yes","No")</f>
         <v>Yes</v>
       </c>
       <c r="Q589" s="20" t="str">
-        <f t="shared" si="54"/>
+        <f>IF(OR(C589=M589, C589="", M589=""),"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="R589" s="20" t="str">
+        <f>IF(OR(D589=N589, D589="", N589=""),"Yes","No")</f>
         <v>No</v>
-      </c>
-      <c r="R589" s="20" t="str">
-        <f t="shared" si="55"/>
-        <v>Yes</v>
       </c>
       <c r="T589" s="27"/>
     </row>
@@ -48869,13 +49209,13 @@
         <v>450</v>
       </c>
       <c r="B590" s="59" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C590" s="59" t="s">
         <v>145</v>
       </c>
       <c r="D590" s="59">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="E590" s="59" t="s">
         <v>782</v>
@@ -48884,13 +49224,13 @@
         <v>450</v>
       </c>
       <c r="G590" s="59" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H590" s="59" t="s">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="I590" s="59">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J590" s="59" t="s">
         <v>782</v>
@@ -48899,13 +49239,13 @@
         <v>450</v>
       </c>
       <c r="L590" s="59" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M590" s="59" t="s">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="N590" s="59">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="O590" s="20" t="str">
         <f t="shared" si="52"/>
@@ -48921,7 +49261,7 @@
       </c>
       <c r="R590" s="20" t="str">
         <f t="shared" si="55"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="T590" s="27"/>
     </row>
@@ -48930,12 +49270,14 @@
         <v>450</v>
       </c>
       <c r="B591" s="59" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C591" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="D591" s="59"/>
+        <v>145</v>
+      </c>
+      <c r="D591" s="59">
+        <v>50</v>
+      </c>
       <c r="E591" s="59" t="s">
         <v>782</v>
       </c>
@@ -48943,12 +49285,14 @@
         <v>450</v>
       </c>
       <c r="G591" s="59" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H591" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="I591" s="59"/>
+        <v>130</v>
+      </c>
+      <c r="I591" s="59">
+        <v>50</v>
+      </c>
       <c r="J591" s="59" t="s">
         <v>782</v>
       </c>
@@ -48956,12 +49300,14 @@
         <v>450</v>
       </c>
       <c r="L591" s="59" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="M591" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="N591" s="59"/>
+        <v>130</v>
+      </c>
+      <c r="N591" s="59">
+        <v>50</v>
+      </c>
       <c r="O591" s="20" t="str">
         <f t="shared" si="52"/>
         <v>Yes</v>
@@ -48972,7 +49318,7 @@
       </c>
       <c r="Q591" s="20" t="str">
         <f t="shared" si="54"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="R591" s="20" t="str">
         <f t="shared" si="55"/>
@@ -48985,14 +49331,12 @@
         <v>450</v>
       </c>
       <c r="B592" s="59" t="s">
-        <v>424</v>
+        <v>453</v>
       </c>
       <c r="C592" s="59" t="s">
-        <v>145</v>
-      </c>
-      <c r="D592" s="59">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D592" s="59"/>
       <c r="E592" s="59" t="s">
         <v>782</v>
       </c>
@@ -49000,14 +49344,12 @@
         <v>450</v>
       </c>
       <c r="G592" s="59" t="s">
-        <v>424</v>
+        <v>453</v>
       </c>
       <c r="H592" s="59" t="s">
-        <v>145</v>
-      </c>
-      <c r="I592" s="59">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I592" s="59"/>
       <c r="J592" s="59" t="s">
         <v>782</v>
       </c>
@@ -49015,14 +49357,12 @@
         <v>450</v>
       </c>
       <c r="L592" s="59" t="s">
-        <v>424</v>
+        <v>453</v>
       </c>
       <c r="M592" s="59" t="s">
-        <v>145</v>
-      </c>
-      <c r="N592" s="59">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N592" s="59"/>
       <c r="O592" s="20" t="str">
         <f t="shared" si="52"/>
         <v>Yes</v>
@@ -49037,7 +49377,7 @@
       </c>
       <c r="R592" s="20" t="str">
         <f t="shared" si="55"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="T592" s="27"/>
     </row>
@@ -49299,7 +49639,9 @@
       <c r="C598" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D598" s="59"/>
+      <c r="D598" s="59">
+        <v>38</v>
+      </c>
       <c r="E598" s="59" t="s">
         <v>782</v>
       </c>
@@ -49312,7 +49654,9 @@
       <c r="H598" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="I598" s="59"/>
+      <c r="I598" s="59">
+        <v>38</v>
+      </c>
       <c r="J598" s="59" t="s">
         <v>782</v>
       </c>
@@ -49325,7 +49669,9 @@
       <c r="M598" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="N598" s="59"/>
+      <c r="N598" s="59">
+        <v>38</v>
+      </c>
       <c r="O598" s="20" t="str">
         <f t="shared" si="52"/>
         <v>Yes</v>
@@ -49355,10 +49701,18 @@
         <v>4</v>
       </c>
       <c r="D599" s="59"/>
-      <c r="E599" s="59"/>
-      <c r="F599" s="59"/>
-      <c r="G599" s="59"/>
-      <c r="H599" s="59"/>
+      <c r="E599" s="59" t="s">
+        <v>782</v>
+      </c>
+      <c r="F599" s="59" t="s">
+        <v>450</v>
+      </c>
+      <c r="G599" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="H599" s="59" t="s">
+        <v>4</v>
+      </c>
       <c r="I599" s="59"/>
       <c r="J599" s="59" t="s">
         <v>782</v>
@@ -49499,18 +49853,18 @@
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="O1:R1"/>
   </mergeCells>
-  <conditionalFormatting sqref="O602:O1048576 N3:N26 N442:N455 N103:N107 N83:N94 O132:R133 O152:R153 O2:R107 O113:R116 N113:N114 N108:R112 N117:R131 N154:R226 N134:R151 O227:R248 N231:N248 N249:R259 N322:N326 N332:N337 O260:R261 N303:N320 N327:R331 N342:N391 O277:R326 N262:R276 N462:N551 O332:R601 N559:N586">
-    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
+  <conditionalFormatting sqref="O602:O1048576 N3:N26 N442:N455 N103:N107 N83:N94 O132:R133 O152:R153 O2:R107 O113:R116 N113:N114 N108:R112 N117:R131 N154:R226 N134:R151 O227:R248 N231:N248 N249:R259 N322:N326 N332:N337 O260:R261 N303:N320 N327:R331 N342:N391 O277:R326 N262:R276 N462:N551 N559:N586 O332:R601">
+    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27:N29 N291:N299 N602:N1048576 N260:N261">
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49527,20 +49881,20 @@
   <dimension ref="A1:T271"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F134" sqref="F134"/>
-      <selection pane="bottomLeft" activeCell="D269" sqref="D269"/>
+      <selection pane="bottomLeft" activeCell="A266" sqref="A266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.7109375" customWidth="1"/>
     <col min="10" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
@@ -49550,7 +49904,7 @@
     <col min="14" max="14" width="5.140625" style="9" customWidth="1"/>
     <col min="15" max="15" width="5" customWidth="1"/>
     <col min="16" max="17" width="4.5703125" style="10" customWidth="1"/>
-    <col min="18" max="18" width="3.5703125" style="10" customWidth="1"/>
+    <col min="18" max="18" width="4.7109375" style="10" customWidth="1"/>
     <col min="19" max="19" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -49768,7 +50122,9 @@
       <c r="C5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="20"/>
+      <c r="D5" s="20" t="s">
+        <v>838</v>
+      </c>
       <c r="E5" s="20" t="s">
         <v>781</v>
       </c>
@@ -49781,7 +50137,9 @@
       <c r="H5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="20"/>
+      <c r="I5" s="20" t="s">
+        <v>838</v>
+      </c>
       <c r="J5" s="20" t="s">
         <v>781</v>
       </c>
@@ -49794,7 +50152,9 @@
       <c r="M5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N5" s="20"/>
+      <c r="N5" s="20" t="s">
+        <v>838</v>
+      </c>
       <c r="O5" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
@@ -49823,7 +50183,9 @@
       <c r="C6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="20"/>
+      <c r="D6" s="20" t="s">
+        <v>823</v>
+      </c>
       <c r="E6" s="20" t="s">
         <v>781</v>
       </c>
@@ -49836,7 +50198,9 @@
       <c r="H6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="20"/>
+      <c r="I6" s="20" t="s">
+        <v>823</v>
+      </c>
       <c r="J6" s="20" t="s">
         <v>781</v>
       </c>
@@ -49849,7 +50213,9 @@
       <c r="M6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N6" s="20"/>
+      <c r="N6" s="20" t="s">
+        <v>823</v>
+      </c>
       <c r="O6" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
@@ -49878,7 +50244,9 @@
       <c r="C7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="20"/>
+      <c r="D7" s="20" t="s">
+        <v>839</v>
+      </c>
       <c r="E7" s="20" t="s">
         <v>781</v>
       </c>
@@ -49891,7 +50259,9 @@
       <c r="H7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="20"/>
+      <c r="I7" s="20" t="s">
+        <v>839</v>
+      </c>
       <c r="J7" s="20" t="s">
         <v>781</v>
       </c>
@@ -49904,7 +50274,9 @@
       <c r="M7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="20"/>
+      <c r="N7" s="20" t="s">
+        <v>839</v>
+      </c>
       <c r="O7" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
@@ -49933,7 +50305,9 @@
       <c r="C8" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="20" t="s">
+        <v>838</v>
+      </c>
       <c r="E8" s="20" t="s">
         <v>781</v>
       </c>
@@ -49946,7 +50320,9 @@
       <c r="H8" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="20"/>
+      <c r="I8" s="20" t="s">
+        <v>838</v>
+      </c>
       <c r="J8" s="20" t="s">
         <v>781</v>
       </c>
@@ -49959,7 +50335,9 @@
       <c r="M8" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N8" s="20"/>
+      <c r="N8" s="20" t="s">
+        <v>838</v>
+      </c>
       <c r="O8" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
@@ -50708,7 +51086,9 @@
       <c r="H22" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I22" s="20"/>
+      <c r="I22" s="20" t="s">
+        <v>838</v>
+      </c>
       <c r="J22" s="20" t="s">
         <v>781</v>
       </c>
@@ -50721,7 +51101,9 @@
       <c r="M22" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N22" s="20"/>
+      <c r="N22" s="20" t="s">
+        <v>838</v>
+      </c>
       <c r="O22" s="20" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
@@ -50991,7 +51373,9 @@
       <c r="C28" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="20"/>
+      <c r="D28" s="20">
+        <v>10</v>
+      </c>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
@@ -51009,7 +51393,9 @@
       <c r="M28" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N28" s="20"/>
+      <c r="N28" s="20">
+        <v>10</v>
+      </c>
       <c r="O28" s="20" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
@@ -51038,7 +51424,9 @@
       <c r="C29" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="20"/>
+      <c r="D29" s="20">
+        <v>10</v>
+      </c>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
@@ -51056,7 +51444,9 @@
       <c r="M29" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N29" s="20"/>
+      <c r="N29" s="20">
+        <v>10</v>
+      </c>
       <c r="O29" s="20" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
@@ -51525,7 +51915,9 @@
       <c r="C38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="1"/>
+      <c r="D38" s="1">
+        <v>10</v>
+      </c>
       <c r="E38" s="1" t="s">
         <v>782</v>
       </c>
@@ -51538,7 +51930,9 @@
       <c r="H38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I38" s="1"/>
+      <c r="I38" s="1">
+        <v>10</v>
+      </c>
       <c r="J38" s="1" t="s">
         <v>782</v>
       </c>
@@ -51551,7 +51945,9 @@
       <c r="M38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N38" s="1"/>
+      <c r="N38" s="1">
+        <v>10</v>
+      </c>
       <c r="O38" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Yes</v>
@@ -52766,7 +53162,7 @@
         <v>36</v>
       </c>
       <c r="M61" s="20" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="N61" s="20">
         <v>30</v>
@@ -52781,7 +53177,7 @@
       </c>
       <c r="Q61" s="20" t="str">
         <f t="shared" si="2"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="R61" s="20" t="str">
         <f t="shared" si="3"/>
@@ -53166,7 +53562,9 @@
       <c r="C69" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D69" s="1"/>
+      <c r="D69" s="1" t="s">
+        <v>823</v>
+      </c>
       <c r="E69" s="1" t="s">
         <v>782</v>
       </c>
@@ -53192,7 +53590,9 @@
       <c r="M69" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N69" s="1"/>
+      <c r="N69" s="1" t="s">
+        <v>823</v>
+      </c>
       <c r="O69" s="20" t="str">
         <f t="shared" si="6"/>
         <v>Yes</v>
@@ -54162,7 +54562,9 @@
       <c r="C87" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D87" s="20"/>
+      <c r="D87" s="20">
+        <v>38</v>
+      </c>
       <c r="E87" s="20" t="s">
         <v>782</v>
       </c>
@@ -54883,7 +55285,9 @@
       <c r="C100" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D100" s="20"/>
+      <c r="D100" s="20" t="s">
+        <v>823</v>
+      </c>
       <c r="E100" s="20" t="s">
         <v>782</v>
       </c>
@@ -54896,7 +55300,9 @@
       <c r="H100" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I100" s="20"/>
+      <c r="I100" s="20" t="s">
+        <v>823</v>
+      </c>
       <c r="J100" s="20" t="s">
         <v>782</v>
       </c>
@@ -54909,7 +55315,9 @@
       <c r="M100" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N100" s="20"/>
+      <c r="N100" s="20" t="s">
+        <v>823</v>
+      </c>
       <c r="O100" s="20" t="str">
         <f t="shared" si="6"/>
         <v>Yes</v>
@@ -54938,7 +55346,9 @@
       <c r="C101" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D101" s="20"/>
+      <c r="D101" s="20" t="s">
+        <v>823</v>
+      </c>
       <c r="E101" s="20" t="s">
         <v>782</v>
       </c>
@@ -54951,7 +55361,9 @@
       <c r="H101" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I101" s="20"/>
+      <c r="I101" s="20" t="s">
+        <v>840</v>
+      </c>
       <c r="J101" s="20" t="s">
         <v>782</v>
       </c>
@@ -54964,7 +55376,9 @@
       <c r="M101" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N101" s="20"/>
+      <c r="N101" s="20" t="s">
+        <v>840</v>
+      </c>
       <c r="O101" s="20" t="str">
         <f t="shared" si="6"/>
         <v>Yes</v>
@@ -54979,7 +55393,7 @@
       </c>
       <c r="R101" s="20" t="str">
         <f t="shared" si="9"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="S101" s="20"/>
     </row>
@@ -56269,7 +56683,9 @@
       <c r="C126" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D126" s="20"/>
+      <c r="D126" s="20">
+        <v>4</v>
+      </c>
       <c r="E126" s="20" t="s">
         <v>782</v>
       </c>
@@ -56282,7 +56698,9 @@
       <c r="H126" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I126" s="20"/>
+      <c r="I126" s="20">
+        <v>4</v>
+      </c>
       <c r="J126" s="20" t="s">
         <v>782</v>
       </c>
@@ -56295,7 +56713,9 @@
       <c r="M126" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N126" s="20"/>
+      <c r="N126" s="20">
+        <v>4</v>
+      </c>
       <c r="O126" s="20" t="str">
         <f t="shared" si="6"/>
         <v>Yes</v>
@@ -56324,7 +56744,9 @@
       <c r="C127" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D127" s="20"/>
+      <c r="D127" s="20">
+        <v>6</v>
+      </c>
       <c r="E127" s="20" t="s">
         <v>782</v>
       </c>
@@ -56337,7 +56759,9 @@
       <c r="H127" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I127" s="20"/>
+      <c r="I127" s="20">
+        <v>6</v>
+      </c>
       <c r="J127" s="20" t="s">
         <v>782</v>
       </c>
@@ -56350,7 +56774,9 @@
       <c r="M127" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N127" s="20"/>
+      <c r="N127" s="20">
+        <v>6</v>
+      </c>
       <c r="O127" s="20" t="str">
         <f t="shared" si="6"/>
         <v>Yes</v>
@@ -56379,7 +56805,9 @@
       <c r="C128" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D128" s="20"/>
+      <c r="D128" s="20">
+        <v>10</v>
+      </c>
       <c r="E128" s="20" t="s">
         <v>782</v>
       </c>
@@ -56392,7 +56820,9 @@
       <c r="H128" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I128" s="20"/>
+      <c r="I128" s="20">
+        <v>10</v>
+      </c>
       <c r="J128" s="20" t="s">
         <v>782</v>
       </c>
@@ -56405,7 +56835,9 @@
       <c r="M128" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N128" s="20"/>
+      <c r="N128" s="20">
+        <v>10</v>
+      </c>
       <c r="O128" s="20" t="str">
         <f t="shared" si="6"/>
         <v>Yes</v>
@@ -56434,7 +56866,9 @@
       <c r="C129" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D129" s="20"/>
+      <c r="D129" s="20">
+        <v>11</v>
+      </c>
       <c r="E129" s="20" t="s">
         <v>782</v>
       </c>
@@ -56447,7 +56881,9 @@
       <c r="H129" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I129" s="20"/>
+      <c r="I129" s="20">
+        <v>11</v>
+      </c>
       <c r="J129" s="20" t="s">
         <v>782</v>
       </c>
@@ -56460,7 +56896,9 @@
       <c r="M129" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N129" s="20"/>
+      <c r="N129" s="20">
+        <v>11</v>
+      </c>
       <c r="O129" s="20" t="str">
         <f t="shared" ref="O129:O193" si="10">IF(OR(A129=K129, A129="", K129=""),"Yes","No")</f>
         <v>Yes</v>
@@ -56611,7 +57049,9 @@
       <c r="C132" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D132" s="20"/>
+      <c r="D132" s="20">
+        <v>6</v>
+      </c>
       <c r="E132" s="20" t="s">
         <v>782</v>
       </c>
@@ -56624,7 +57064,9 @@
       <c r="H132" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I132" s="20"/>
+      <c r="I132" s="20">
+        <v>6</v>
+      </c>
       <c r="J132" s="20" t="s">
         <v>782</v>
       </c>
@@ -56637,7 +57079,9 @@
       <c r="M132" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N132" s="20"/>
+      <c r="N132" s="20">
+        <v>6</v>
+      </c>
       <c r="O132" s="20" t="str">
         <f t="shared" si="10"/>
         <v>Yes</v>
@@ -56666,7 +57110,9 @@
       <c r="C133" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D133" s="20"/>
+      <c r="D133" s="20">
+        <v>6</v>
+      </c>
       <c r="E133" s="20" t="s">
         <v>782</v>
       </c>
@@ -56679,7 +57125,9 @@
       <c r="H133" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I133" s="20"/>
+      <c r="I133" s="20">
+        <v>6</v>
+      </c>
       <c r="J133" s="20" t="s">
         <v>782</v>
       </c>
@@ -56692,7 +57140,9 @@
       <c r="M133" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N133" s="20"/>
+      <c r="N133" s="20">
+        <v>6</v>
+      </c>
       <c r="O133" s="20" t="str">
         <f t="shared" si="10"/>
         <v>Yes</v>
@@ -56721,7 +57171,9 @@
       <c r="C134" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D134" s="20"/>
+      <c r="D134" s="20">
+        <v>4</v>
+      </c>
       <c r="E134" s="20" t="s">
         <v>782</v>
       </c>
@@ -56734,7 +57186,9 @@
       <c r="H134" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I134" s="20"/>
+      <c r="I134" s="20">
+        <v>4</v>
+      </c>
       <c r="J134" s="20" t="s">
         <v>782</v>
       </c>
@@ -56747,7 +57201,9 @@
       <c r="M134" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N134" s="20"/>
+      <c r="N134" s="20">
+        <v>4</v>
+      </c>
       <c r="O134" s="20" t="str">
         <f t="shared" si="10"/>
         <v>Yes</v>
@@ -56905,7 +57361,9 @@
       <c r="H137" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I137" s="20"/>
+      <c r="I137" s="20">
+        <v>10</v>
+      </c>
       <c r="J137" s="20" t="s">
         <v>782</v>
       </c>
@@ -56918,7 +57376,9 @@
       <c r="M137" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N137" s="20"/>
+      <c r="N137" s="20">
+        <v>10</v>
+      </c>
       <c r="O137" s="20" t="str">
         <f t="shared" si="10"/>
         <v>Yes</v>
@@ -57023,7 +57483,9 @@
       <c r="H139" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I139" s="20"/>
+      <c r="I139" s="20">
+        <v>10</v>
+      </c>
       <c r="J139" s="20" t="s">
         <v>782</v>
       </c>
@@ -57036,7 +57498,9 @@
       <c r="M139" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N139" s="20"/>
+      <c r="N139" s="20">
+        <v>10</v>
+      </c>
       <c r="O139" s="20" t="str">
         <f t="shared" ref="O139:R140" si="14">IF(OR(A139=K139, A139="", K139=""),"Yes","No")</f>
         <v>Yes</v>
@@ -57061,9 +57525,7 @@
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="20"/>
-      <c r="D140" s="20">
-        <v>0</v>
-      </c>
+      <c r="D140" s="20"/>
       <c r="E140" s="20" t="s">
         <v>782</v>
       </c>
@@ -57108,7 +57570,7 @@
       </c>
       <c r="R140" s="20" t="str">
         <f t="shared" si="14"/>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="S140" s="20"/>
     </row>
@@ -61505,7 +61967,9 @@
       <c r="C237" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D237" s="20"/>
+      <c r="D237" s="20" t="s">
+        <v>841</v>
+      </c>
       <c r="E237" s="20" t="s">
         <v>782</v>
       </c>
@@ -61518,7 +61982,9 @@
       <c r="H237" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I237" s="20"/>
+      <c r="I237" s="20" t="s">
+        <v>841</v>
+      </c>
       <c r="J237" s="20" t="s">
         <v>782</v>
       </c>
@@ -61531,7 +61997,9 @@
       <c r="M237" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N237" s="20"/>
+      <c r="N237" s="20" t="s">
+        <v>841</v>
+      </c>
       <c r="O237" s="20" t="str">
         <f t="shared" si="15"/>
         <v>Yes</v>
@@ -61933,9 +62401,7 @@
       <c r="M244" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="N244" s="20">
-        <v>15</v>
-      </c>
+      <c r="N244" s="20"/>
       <c r="O244" s="20" t="str">
         <f t="shared" si="15"/>
         <v>Yes</v>
@@ -62366,7 +62832,9 @@
       <c r="H252" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I252" s="20"/>
+      <c r="I252" s="20" t="s">
+        <v>841</v>
+      </c>
       <c r="J252" s="20" t="s">
         <v>782</v>
       </c>
@@ -62379,7 +62847,9 @@
       <c r="M252" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N252" s="20"/>
+      <c r="N252" s="20" t="s">
+        <v>841</v>
+      </c>
       <c r="O252" s="20" t="str">
         <f t="shared" si="15"/>
         <v>Yes</v>
@@ -62686,7 +63156,9 @@
       <c r="H258" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I258" s="20"/>
+      <c r="I258" s="20">
+        <v>5</v>
+      </c>
       <c r="J258" s="20" t="s">
         <v>782</v>
       </c>
@@ -62699,7 +63171,9 @@
       <c r="M258" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N258" s="20"/>
+      <c r="N258" s="20">
+        <v>5</v>
+      </c>
       <c r="O258" s="20" t="str">
         <f t="shared" ref="O258:O265" si="19">IF(OR(A258=K258, A258="", K258=""),"Yes","No")</f>
         <v>Yes</v>
@@ -62738,7 +63212,9 @@
       <c r="H259" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I259" s="20"/>
+      <c r="I259" s="20">
+        <v>3</v>
+      </c>
       <c r="J259" s="20" t="s">
         <v>782</v>
       </c>
@@ -62751,7 +63227,9 @@
       <c r="M259" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N259" s="20"/>
+      <c r="N259" s="20">
+        <v>3</v>
+      </c>
       <c r="O259" s="20" t="str">
         <f t="shared" si="19"/>
         <v>Yes</v>
@@ -63070,7 +63548,9 @@
       <c r="H265" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I265" s="20"/>
+      <c r="I265" s="20">
+        <v>9</v>
+      </c>
       <c r="J265" s="20" t="s">
         <v>782</v>
       </c>
@@ -63083,7 +63563,9 @@
       <c r="M265" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N265" s="20"/>
+      <c r="N265" s="20">
+        <v>9</v>
+      </c>
       <c r="O265" s="20" t="str">
         <f t="shared" si="19"/>
         <v>Yes</v>
@@ -63397,23 +63879,28 @@
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="O1:R1"/>
   </mergeCells>
-  <conditionalFormatting sqref="M272:N1048576 M168:N231 M108:N117 M92:R107 M65:N91 M3:N25 M30:N41 O2:R91 M46:N59 M123:N128 M130:N152 O108:R231">
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+  <conditionalFormatting sqref="M272:N1048576 M168:N231 M108:N117 M92:R107 M65:N91 M3:N4 M30:N41 O2:R91 M46:N59 M123:N125 M141:N152 O108:R231 M9:N21 M5:M8 M23:N25 M22 M130:M140 M126:M128">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M232:N243 O232:R265 M245:N265">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+  <conditionalFormatting sqref="M232:M243 O232:R265 M245:M265">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O266:R271">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I100:I101">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -63429,10 +63916,10 @@
   </sheetPr>
   <dimension ref="A1:T248"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F134" sqref="F134"/>
-      <selection pane="bottomLeft" activeCell="N3" sqref="N3:N244"/>
+      <selection pane="bottomLeft" activeCell="J202" sqref="J202:M206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -71568,18 +72055,10 @@
         <v>0</v>
       </c>
       <c r="I173" s="20"/>
-      <c r="J173" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="K173" s="20" t="s">
-        <v>666</v>
-      </c>
-      <c r="L173" s="20" t="s">
-        <v>667</v>
-      </c>
-      <c r="M173" s="20" t="s">
-        <v>0</v>
-      </c>
+      <c r="J173" s="20"/>
+      <c r="K173" s="20"/>
+      <c r="L173" s="20"/>
+      <c r="M173" s="20"/>
       <c r="N173" s="20"/>
       <c r="O173" s="20" t="str">
         <f t="shared" si="9"/>
@@ -71619,18 +72098,10 @@
       <c r="I174" s="20">
         <v>100</v>
       </c>
-      <c r="J174" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="K174" s="20" t="s">
-        <v>666</v>
-      </c>
-      <c r="L174" s="20" t="s">
-        <v>668</v>
-      </c>
-      <c r="M174" s="20" t="s">
-        <v>130</v>
-      </c>
+      <c r="J174" s="20"/>
+      <c r="K174" s="20"/>
+      <c r="L174" s="20"/>
+      <c r="M174" s="20"/>
       <c r="N174" s="20">
         <v>100</v>
       </c>
@@ -71670,18 +72141,10 @@
         <v>0</v>
       </c>
       <c r="I175" s="20"/>
-      <c r="J175" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="K175" s="20" t="s">
-        <v>666</v>
-      </c>
-      <c r="L175" s="20" t="s">
-        <v>669</v>
-      </c>
-      <c r="M175" s="20" t="s">
-        <v>0</v>
-      </c>
+      <c r="J175" s="20"/>
+      <c r="K175" s="20"/>
+      <c r="L175" s="20"/>
+      <c r="M175" s="20"/>
       <c r="N175" s="20"/>
       <c r="O175" s="20" t="str">
         <f t="shared" si="9"/>
@@ -71721,18 +72184,10 @@
       <c r="I176" s="20">
         <v>10</v>
       </c>
-      <c r="J176" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="K176" s="20" t="s">
-        <v>666</v>
-      </c>
-      <c r="L176" s="20" t="s">
-        <v>670</v>
-      </c>
-      <c r="M176" s="20" t="s">
-        <v>130</v>
-      </c>
+      <c r="J176" s="20"/>
+      <c r="K176" s="20"/>
+      <c r="L176" s="20"/>
+      <c r="M176" s="20"/>
       <c r="N176" s="20">
         <v>10</v>
       </c>
@@ -71774,18 +72229,10 @@
       <c r="I177" s="20">
         <v>10</v>
       </c>
-      <c r="J177" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="K177" s="20" t="s">
-        <v>666</v>
-      </c>
-      <c r="L177" s="20" t="s">
-        <v>671</v>
-      </c>
-      <c r="M177" s="20" t="s">
-        <v>130</v>
-      </c>
+      <c r="J177" s="20"/>
+      <c r="K177" s="20"/>
+      <c r="L177" s="20"/>
+      <c r="M177" s="20"/>
       <c r="N177" s="20">
         <v>10</v>
       </c>
@@ -71827,18 +72274,10 @@
       <c r="I178" s="20">
         <v>23</v>
       </c>
-      <c r="J178" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="K178" s="20" t="s">
-        <v>666</v>
-      </c>
-      <c r="L178" s="20" t="s">
-        <v>672</v>
-      </c>
-      <c r="M178" s="20" t="s">
-        <v>130</v>
-      </c>
+      <c r="J178" s="20"/>
+      <c r="K178" s="20"/>
+      <c r="L178" s="20"/>
+      <c r="M178" s="20"/>
       <c r="N178" s="20">
         <v>23</v>
       </c>
@@ -71880,18 +72319,10 @@
       <c r="I179" s="20">
         <v>8</v>
       </c>
-      <c r="J179" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="K179" s="20" t="s">
-        <v>666</v>
-      </c>
-      <c r="L179" s="20" t="s">
-        <v>673</v>
-      </c>
-      <c r="M179" s="20" t="s">
-        <v>130</v>
-      </c>
+      <c r="J179" s="20"/>
+      <c r="K179" s="20"/>
+      <c r="L179" s="20"/>
+      <c r="M179" s="20"/>
       <c r="N179" s="20">
         <v>8</v>
       </c>
@@ -71933,18 +72364,10 @@
       <c r="I180" s="20">
         <v>10</v>
       </c>
-      <c r="J180" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="K180" s="20" t="s">
-        <v>666</v>
-      </c>
-      <c r="L180" s="20" t="s">
-        <v>674</v>
-      </c>
-      <c r="M180" s="20" t="s">
-        <v>130</v>
-      </c>
+      <c r="J180" s="20"/>
+      <c r="K180" s="20"/>
+      <c r="L180" s="20"/>
+      <c r="M180" s="20"/>
       <c r="N180" s="20">
         <v>10</v>
       </c>
@@ -71986,18 +72409,10 @@
       <c r="I181" s="20">
         <v>23</v>
       </c>
-      <c r="J181" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="K181" s="20" t="s">
-        <v>666</v>
-      </c>
-      <c r="L181" s="20" t="s">
-        <v>675</v>
-      </c>
-      <c r="M181" s="20" t="s">
-        <v>130</v>
-      </c>
+      <c r="J181" s="20"/>
+      <c r="K181" s="20"/>
+      <c r="L181" s="20"/>
+      <c r="M181" s="20"/>
       <c r="N181" s="20">
         <v>23</v>
       </c>
@@ -72039,18 +72454,10 @@
       <c r="I182" s="20">
         <v>20</v>
       </c>
-      <c r="J182" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="K182" s="20" t="s">
-        <v>666</v>
-      </c>
-      <c r="L182" s="20" t="s">
-        <v>676</v>
-      </c>
-      <c r="M182" s="20" t="s">
-        <v>130</v>
-      </c>
+      <c r="J182" s="20"/>
+      <c r="K182" s="20"/>
+      <c r="L182" s="20"/>
+      <c r="M182" s="20"/>
       <c r="N182" s="20">
         <v>20</v>
       </c>
@@ -72092,18 +72499,10 @@
       <c r="I183" s="20">
         <v>10</v>
       </c>
-      <c r="J183" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="K183" s="20" t="s">
-        <v>666</v>
-      </c>
-      <c r="L183" s="20" t="s">
-        <v>677</v>
-      </c>
-      <c r="M183" s="20" t="s">
-        <v>130</v>
-      </c>
+      <c r="J183" s="20"/>
+      <c r="K183" s="20"/>
+      <c r="L183" s="20"/>
+      <c r="M183" s="20"/>
       <c r="N183" s="20">
         <v>10</v>
       </c>
@@ -72143,18 +72542,10 @@
         <v>4</v>
       </c>
       <c r="I184" s="20"/>
-      <c r="J184" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="K184" s="20" t="s">
-        <v>666</v>
-      </c>
-      <c r="L184" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="M184" s="20" t="s">
-        <v>4</v>
-      </c>
+      <c r="J184" s="20"/>
+      <c r="K184" s="20"/>
+      <c r="L184" s="20"/>
+      <c r="M184" s="20"/>
       <c r="N184" s="20"/>
       <c r="O184" s="20" t="str">
         <f t="shared" si="9"/>
@@ -72192,18 +72583,10 @@
         <v>4</v>
       </c>
       <c r="I185" s="20"/>
-      <c r="J185" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="K185" s="20" t="s">
-        <v>666</v>
-      </c>
-      <c r="L185" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="M185" s="20" t="s">
-        <v>4</v>
-      </c>
+      <c r="J185" s="20"/>
+      <c r="K185" s="20"/>
+      <c r="L185" s="20"/>
+      <c r="M185" s="20"/>
       <c r="N185" s="20"/>
       <c r="O185" s="20" t="str">
         <f t="shared" si="9"/>
@@ -72241,18 +72624,10 @@
         <v>0</v>
       </c>
       <c r="I186" s="1"/>
-      <c r="J186" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="K186" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="L186" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="M186" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="J186" s="1"/>
+      <c r="K186" s="1"/>
+      <c r="L186" s="1"/>
+      <c r="M186" s="1"/>
       <c r="N186" s="1"/>
       <c r="O186" s="20" t="str">
         <f t="shared" si="9"/>
@@ -72292,18 +72667,10 @@
       <c r="I187" s="1">
         <v>100</v>
       </c>
-      <c r="J187" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="K187" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="L187" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="M187" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="J187" s="1"/>
+      <c r="K187" s="1"/>
+      <c r="L187" s="1"/>
+      <c r="M187" s="1"/>
       <c r="N187" s="1">
         <v>100</v>
       </c>
@@ -72343,18 +72710,10 @@
         <v>4</v>
       </c>
       <c r="I188" s="1"/>
-      <c r="J188" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="K188" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="L188" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="M188" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="J188" s="1"/>
+      <c r="K188" s="1"/>
+      <c r="L188" s="1"/>
+      <c r="M188" s="1"/>
       <c r="N188" s="1"/>
       <c r="O188" s="20" t="str">
         <f t="shared" si="9"/>
@@ -72392,18 +72751,10 @@
         <v>0</v>
       </c>
       <c r="I189" s="1"/>
-      <c r="J189" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="K189" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="L189" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="M189" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="J189" s="1"/>
+      <c r="K189" s="1"/>
+      <c r="L189" s="1"/>
+      <c r="M189" s="1"/>
       <c r="N189" s="1"/>
       <c r="O189" s="20" t="str">
         <f t="shared" si="9"/>
@@ -72441,18 +72792,10 @@
         <v>0</v>
       </c>
       <c r="I190" s="1"/>
-      <c r="J190" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="K190" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="L190" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M190" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="J190" s="1"/>
+      <c r="K190" s="1"/>
+      <c r="L190" s="1"/>
+      <c r="M190" s="1"/>
       <c r="N190" s="1"/>
       <c r="O190" s="20" t="str">
         <f t="shared" si="9"/>
@@ -72490,18 +72833,10 @@
         <v>0</v>
       </c>
       <c r="I191" s="1"/>
-      <c r="J191" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="K191" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="L191" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="M191" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="J191" s="1"/>
+      <c r="K191" s="1"/>
+      <c r="L191" s="1"/>
+      <c r="M191" s="1"/>
       <c r="N191" s="1"/>
       <c r="O191" s="20" t="str">
         <f t="shared" si="9"/>
@@ -72539,18 +72874,10 @@
         <v>4</v>
       </c>
       <c r="I192" s="1"/>
-      <c r="J192" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="K192" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="L192" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="M192" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="J192" s="1"/>
+      <c r="K192" s="1"/>
+      <c r="L192" s="1"/>
+      <c r="M192" s="1"/>
       <c r="N192" s="1"/>
       <c r="O192" s="20" t="str">
         <f t="shared" si="9"/>
@@ -72588,18 +72915,10 @@
         <v>0</v>
       </c>
       <c r="I193" s="1"/>
-      <c r="J193" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="K193" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="L193" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="M193" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="J193" s="1"/>
+      <c r="K193" s="1"/>
+      <c r="L193" s="1"/>
+      <c r="M193" s="1"/>
       <c r="N193" s="1"/>
       <c r="O193" s="20" t="str">
         <f t="shared" si="9"/>
@@ -72639,18 +72958,10 @@
       <c r="I194" s="1">
         <v>30</v>
       </c>
-      <c r="J194" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="K194" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="L194" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="M194" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="J194" s="1"/>
+      <c r="K194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="M194" s="1"/>
       <c r="N194" s="1">
         <v>30</v>
       </c>
@@ -72690,18 +73001,10 @@
         <v>0</v>
       </c>
       <c r="I195" s="1"/>
-      <c r="J195" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="K195" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="L195" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="M195" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="J195" s="1"/>
+      <c r="K195" s="1"/>
+      <c r="L195" s="1"/>
+      <c r="M195" s="1"/>
       <c r="N195" s="1"/>
       <c r="O195" s="20" t="str">
         <f t="shared" si="9"/>
@@ -72739,18 +73042,10 @@
         <v>4</v>
       </c>
       <c r="I196" s="1"/>
-      <c r="J196" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="K196" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="L196" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M196" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="J196" s="1"/>
+      <c r="K196" s="1"/>
+      <c r="L196" s="1"/>
+      <c r="M196" s="1"/>
       <c r="N196" s="1"/>
       <c r="O196" s="20" t="str">
         <f t="shared" ref="O196:O244" si="13">IF(OR(A196=K196, A196="", K196=""),"Yes","No")</f>
@@ -72788,18 +73083,10 @@
         <v>4</v>
       </c>
       <c r="I197" s="1"/>
-      <c r="J197" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="K197" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="L197" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M197" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="J197" s="1"/>
+      <c r="K197" s="1"/>
+      <c r="L197" s="1"/>
+      <c r="M197" s="1"/>
       <c r="N197" s="1"/>
       <c r="O197" s="20" t="str">
         <f t="shared" si="13"/>
@@ -73033,18 +73320,10 @@
         <v>0</v>
       </c>
       <c r="I202" s="1"/>
-      <c r="J202" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="K202" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="L202" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="M202" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="J202" s="1"/>
+      <c r="K202" s="1"/>
+      <c r="L202" s="1"/>
+      <c r="M202" s="1"/>
       <c r="N202" s="1"/>
       <c r="O202" s="20" t="str">
         <f t="shared" si="13"/>
@@ -73082,18 +73361,10 @@
         <v>0</v>
       </c>
       <c r="I203" s="1"/>
-      <c r="J203" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="K203" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="L203" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M203" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="J203" s="1"/>
+      <c r="K203" s="1"/>
+      <c r="L203" s="1"/>
+      <c r="M203" s="1"/>
       <c r="N203" s="1"/>
       <c r="O203" s="20" t="str">
         <f t="shared" si="13"/>
@@ -73131,18 +73402,10 @@
         <v>0</v>
       </c>
       <c r="I204" s="1"/>
-      <c r="J204" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="K204" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="L204" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="M204" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="J204" s="1"/>
+      <c r="K204" s="1"/>
+      <c r="L204" s="1"/>
+      <c r="M204" s="1"/>
       <c r="N204" s="1"/>
       <c r="O204" s="20" t="str">
         <f t="shared" si="13"/>
@@ -73180,18 +73443,10 @@
         <v>4</v>
       </c>
       <c r="I205" s="1"/>
-      <c r="J205" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="K205" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="L205" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M205" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="J205" s="1"/>
+      <c r="K205" s="1"/>
+      <c r="L205" s="1"/>
+      <c r="M205" s="1"/>
       <c r="N205" s="1"/>
       <c r="O205" s="20" t="str">
         <f t="shared" si="13"/>
@@ -73229,18 +73484,10 @@
         <v>4</v>
       </c>
       <c r="I206" s="1"/>
-      <c r="J206" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="K206" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="L206" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M206" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="J206" s="1"/>
+      <c r="K206" s="1"/>
+      <c r="L206" s="1"/>
+      <c r="M206" s="1"/>
       <c r="N206" s="1"/>
       <c r="O206" s="20" t="str">
         <f t="shared" si="13"/>
@@ -75239,22 +75486,22 @@
     <mergeCell ref="J1:N1"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:N244 M249:N1048576">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:R1">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:R244">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O245:R248">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -75270,8 +75517,8 @@
   </sheetPr>
   <dimension ref="A1:T81"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:N64"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -77295,7 +77542,9 @@
       <c r="C37" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D37" s="49"/>
+      <c r="D37" s="49">
+        <v>38</v>
+      </c>
       <c r="E37" s="49" t="s">
         <v>781</v>
       </c>
@@ -77308,7 +77557,9 @@
       <c r="H37" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="I37" s="49"/>
+      <c r="I37" s="49">
+        <v>38</v>
+      </c>
       <c r="J37" s="49" t="s">
         <v>782</v>
       </c>
@@ -77321,7 +77572,9 @@
       <c r="M37" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="N37" s="49"/>
+      <c r="N37" s="49">
+        <v>38</v>
+      </c>
       <c r="O37" s="49" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
@@ -77350,7 +77603,9 @@
       <c r="C38" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="49"/>
+      <c r="D38" s="49">
+        <v>38</v>
+      </c>
       <c r="E38" s="49" t="s">
         <v>781</v>
       </c>
@@ -77363,7 +77618,9 @@
       <c r="H38" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="I38" s="49"/>
+      <c r="I38" s="49">
+        <v>38</v>
+      </c>
       <c r="J38" s="49" t="s">
         <v>782</v>
       </c>
@@ -77376,7 +77633,9 @@
       <c r="M38" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="N38" s="49"/>
+      <c r="N38" s="49">
+        <v>38</v>
+      </c>
       <c r="O38" s="49" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
@@ -77935,7 +78194,9 @@
       <c r="C49" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D49" s="38"/>
+      <c r="D49" s="38">
+        <v>38</v>
+      </c>
       <c r="E49" s="38" t="s">
         <v>782</v>
       </c>
@@ -77948,7 +78209,9 @@
       <c r="H49" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="I49" s="38"/>
+      <c r="I49" s="38">
+        <v>38</v>
+      </c>
       <c r="J49" s="38" t="s">
         <v>782</v>
       </c>
@@ -77961,7 +78224,9 @@
       <c r="M49" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="N49" s="38"/>
+      <c r="N49" s="38">
+        <v>38</v>
+      </c>
       <c r="O49" s="49" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
@@ -78021,7 +78286,7 @@
         <v>145</v>
       </c>
       <c r="N50" s="38">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="O50" s="49" t="str">
         <f t="shared" si="4"/>
@@ -78037,7 +78302,7 @@
       </c>
       <c r="R50" s="49" t="str">
         <f t="shared" si="7"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="S50" s="38"/>
     </row>
@@ -79073,17 +79338,17 @@
     <mergeCell ref="O1:R1"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:N15 M16:R31 O2:R15 M32:N44 M49:N1048576">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32:R69">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -79099,10 +79364,10 @@
   </sheetPr>
   <dimension ref="A1:T85"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F134" sqref="F134"/>
-      <selection pane="bottomLeft" activeCell="N3" sqref="N3:N85"/>
+      <selection pane="bottomLeft" activeCell="N80" sqref="N80:N84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -81196,7 +81461,9 @@
       <c r="H43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I43" s="1"/>
+      <c r="I43" s="1">
+        <v>6</v>
+      </c>
       <c r="J43" s="1" t="s">
         <v>782</v>
       </c>
@@ -81209,7 +81476,9 @@
       <c r="M43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N43" s="1"/>
+      <c r="N43" s="1">
+        <v>6</v>
+      </c>
       <c r="O43" s="20" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
@@ -81246,7 +81515,9 @@
       <c r="H44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I44" s="1"/>
+      <c r="I44" s="1">
+        <v>19</v>
+      </c>
       <c r="J44" s="1" t="s">
         <v>782</v>
       </c>
@@ -81259,7 +81530,9 @@
       <c r="M44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N44" s="1"/>
+      <c r="N44" s="1">
+        <v>19</v>
+      </c>
       <c r="O44" s="20" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
@@ -81351,7 +81624,7 @@
         <v>120</v>
       </c>
       <c r="I46" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>782</v>
@@ -81366,7 +81639,7 @@
         <v>120</v>
       </c>
       <c r="N46" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O46" s="20" t="str">
         <f t="shared" si="4"/>
@@ -81454,7 +81727,9 @@
       <c r="H48" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I48" s="1"/>
+      <c r="I48" s="1">
+        <v>19</v>
+      </c>
       <c r="J48" s="1" t="s">
         <v>782</v>
       </c>
@@ -81467,7 +81742,9 @@
       <c r="M48" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N48" s="1"/>
+      <c r="N48" s="1">
+        <v>19</v>
+      </c>
       <c r="O48" s="20" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
@@ -82174,7 +82451,9 @@
       <c r="H62" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I62" s="20"/>
+      <c r="I62" s="20">
+        <v>38</v>
+      </c>
       <c r="J62" s="20" t="s">
         <v>782</v>
       </c>
@@ -82187,7 +82466,9 @@
       <c r="M62" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N62" s="20"/>
+      <c r="N62" s="20">
+        <v>38</v>
+      </c>
       <c r="O62" s="20" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
@@ -82224,7 +82505,9 @@
       <c r="H63" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I63" s="20"/>
+      <c r="I63" s="20">
+        <v>38</v>
+      </c>
       <c r="J63" s="20" t="s">
         <v>782</v>
       </c>
@@ -82237,7 +82520,9 @@
       <c r="M63" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N63" s="20"/>
+      <c r="N63" s="20">
+        <v>38</v>
+      </c>
       <c r="O63" s="20" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
@@ -82274,7 +82559,9 @@
       <c r="H64" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I64" s="20"/>
+      <c r="I64" s="20">
+        <v>38</v>
+      </c>
       <c r="J64" s="20" t="s">
         <v>782</v>
       </c>
@@ -82287,7 +82574,9 @@
       <c r="M64" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N64" s="20"/>
+      <c r="N64" s="20">
+        <v>38</v>
+      </c>
       <c r="O64" s="20" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
@@ -82324,7 +82613,9 @@
       <c r="H65" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I65" s="20"/>
+      <c r="I65" s="20">
+        <v>38</v>
+      </c>
       <c r="J65" s="20" t="s">
         <v>782</v>
       </c>
@@ -82337,7 +82628,9 @@
       <c r="M65" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N65" s="20"/>
+      <c r="N65" s="20">
+        <v>38</v>
+      </c>
       <c r="O65" s="20" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
@@ -82374,7 +82667,9 @@
       <c r="H66" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I66" s="20"/>
+      <c r="I66" s="20">
+        <v>38</v>
+      </c>
       <c r="J66" s="20" t="s">
         <v>782</v>
       </c>
@@ -82387,7 +82682,9 @@
       <c r="M66" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N66" s="20"/>
+      <c r="N66" s="20">
+        <v>38</v>
+      </c>
       <c r="O66" s="20" t="str">
         <f t="shared" si="4"/>
         <v>Yes</v>
@@ -82424,7 +82721,9 @@
       <c r="H67" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I67" s="20"/>
+      <c r="I67" s="20">
+        <v>38</v>
+      </c>
       <c r="J67" s="20" t="s">
         <v>782</v>
       </c>
@@ -82437,7 +82736,9 @@
       <c r="M67" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N67" s="20"/>
+      <c r="N67" s="20">
+        <v>38</v>
+      </c>
       <c r="O67" s="20" t="str">
         <f t="shared" ref="O67:O85" si="8">IF(OR(A67=K67, A67="", K67=""),"Yes","No")</f>
         <v>Yes</v>
@@ -82474,9 +82775,7 @@
       <c r="H68" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="I68" s="20">
-        <v>4000</v>
-      </c>
+      <c r="I68" s="20"/>
       <c r="J68" s="20" t="s">
         <v>782</v>
       </c>
@@ -82489,9 +82788,7 @@
       <c r="M68" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="N68" s="20">
-        <v>4000</v>
-      </c>
+      <c r="N68" s="20"/>
       <c r="O68" s="20" t="str">
         <f t="shared" si="8"/>
         <v>Yes</v>
@@ -82636,7 +82933,9 @@
       <c r="H71" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I71" s="1"/>
+      <c r="I71" s="1">
+        <v>38</v>
+      </c>
       <c r="J71" s="1" t="s">
         <v>782</v>
       </c>
@@ -82649,7 +82948,9 @@
       <c r="M71" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N71" s="1"/>
+      <c r="N71" s="1">
+        <v>38</v>
+      </c>
       <c r="O71" s="20" t="str">
         <f t="shared" si="8"/>
         <v>Yes</v>
@@ -82736,7 +83037,9 @@
       <c r="H73" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I73" s="20"/>
+      <c r="I73" s="20">
+        <v>38</v>
+      </c>
       <c r="J73" s="20" t="s">
         <v>782</v>
       </c>
@@ -82749,7 +83052,9 @@
       <c r="M73" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N73" s="20"/>
+      <c r="N73" s="20">
+        <v>38</v>
+      </c>
       <c r="O73" s="20" t="str">
         <f t="shared" si="8"/>
         <v>Yes</v>
@@ -82786,7 +83091,9 @@
       <c r="H74" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I74" s="20"/>
+      <c r="I74" s="20">
+        <v>38</v>
+      </c>
       <c r="J74" s="20" t="s">
         <v>782</v>
       </c>
@@ -82799,7 +83106,9 @@
       <c r="M74" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N74" s="20"/>
+      <c r="N74" s="20">
+        <v>38</v>
+      </c>
       <c r="O74" s="20" t="str">
         <f t="shared" si="8"/>
         <v>Yes</v>
@@ -82836,7 +83145,9 @@
       <c r="H75" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I75" s="20"/>
+      <c r="I75" s="20">
+        <v>38</v>
+      </c>
       <c r="J75" s="20" t="s">
         <v>782</v>
       </c>
@@ -82849,7 +83160,9 @@
       <c r="M75" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N75" s="20"/>
+      <c r="N75" s="20">
+        <v>38</v>
+      </c>
       <c r="O75" s="20" t="str">
         <f t="shared" si="8"/>
         <v>Yes</v>
@@ -82886,7 +83199,9 @@
       <c r="H76" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I76" s="20"/>
+      <c r="I76" s="20">
+        <v>38</v>
+      </c>
       <c r="J76" s="20" t="s">
         <v>782</v>
       </c>
@@ -82899,7 +83214,9 @@
       <c r="M76" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N76" s="20"/>
+      <c r="N76" s="20">
+        <v>38</v>
+      </c>
       <c r="O76" s="20" t="str">
         <f t="shared" si="8"/>
         <v>Yes</v>
@@ -82936,7 +83253,9 @@
       <c r="H77" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I77" s="20"/>
+      <c r="I77" s="20">
+        <v>38</v>
+      </c>
       <c r="J77" s="20" t="s">
         <v>782</v>
       </c>
@@ -82949,7 +83268,9 @@
       <c r="M77" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N77" s="20"/>
+      <c r="N77" s="20">
+        <v>38</v>
+      </c>
       <c r="O77" s="20" t="str">
         <f t="shared" si="8"/>
         <v>Yes</v>
@@ -82986,7 +83307,9 @@
       <c r="H78" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I78" s="20"/>
+      <c r="I78" s="20">
+        <v>38</v>
+      </c>
       <c r="J78" s="20" t="s">
         <v>782</v>
       </c>
@@ -82999,7 +83322,9 @@
       <c r="M78" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N78" s="20"/>
+      <c r="N78" s="20">
+        <v>38</v>
+      </c>
       <c r="O78" s="20" t="str">
         <f t="shared" si="8"/>
         <v>Yes</v>
@@ -83036,9 +83361,7 @@
       <c r="H79" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="I79" s="20">
-        <v>4000</v>
-      </c>
+      <c r="I79" s="20"/>
       <c r="J79" s="20" t="s">
         <v>782</v>
       </c>
@@ -83051,9 +83374,7 @@
       <c r="M79" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="N79" s="20">
-        <v>4000</v>
-      </c>
+      <c r="N79" s="20"/>
       <c r="O79" s="20" t="str">
         <f t="shared" si="8"/>
         <v>Yes</v>
@@ -83091,7 +83412,7 @@
         <v>736</v>
       </c>
       <c r="I80" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>782</v>
@@ -83106,7 +83427,7 @@
         <v>736</v>
       </c>
       <c r="N80" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="O80" s="20" t="str">
         <f t="shared" si="8"/>
@@ -83143,7 +83464,9 @@
       <c r="H81" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I81" s="1"/>
+      <c r="I81" s="1">
+        <v>2</v>
+      </c>
       <c r="J81" s="1" t="s">
         <v>782</v>
       </c>
@@ -83156,7 +83479,9 @@
       <c r="M81" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N81" s="1"/>
+      <c r="N81" s="1">
+        <v>2</v>
+      </c>
       <c r="O81" s="20" t="str">
         <f t="shared" si="8"/>
         <v>Yes</v>
@@ -83390,23 +83715,23 @@
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="J1:N1"/>
   </mergeCells>
-  <conditionalFormatting sqref="M7:N79 O2:R79 M86:N1048576">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+  <conditionalFormatting sqref="M7:N42 O2:R79 M86:N1048576 M53:N61 M43:M52 M68:N72 M62:M67 M79:N79 M73:M78">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:R1">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M80:N85">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="M85:N85 M80:M84">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O80:R85">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -83417,10 +83742,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A82" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E109" sqref="A103:E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -83511,7 +83836,9 @@
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>823</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -83523,114 +83850,127 @@
       <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>823</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="31" t="s">
         <v>461</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2" t="s">
+      <c r="C8" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="31" t="s">
         <v>461</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="31">
         <v>10</v>
       </c>
+      <c r="E9" s="31"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="31" t="s">
         <v>461</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="31">
         <v>20</v>
       </c>
+      <c r="E10" s="31"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="31" t="s">
         <v>461</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="31">
         <v>50</v>
       </c>
+      <c r="E11" s="31"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="31" t="s">
         <v>461</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="31" t="s">
         <v>462</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1"/>
+      <c r="C12" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="31" t="s">
         <v>461</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="31" t="s">
         <v>463</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="31">
         <v>10</v>
       </c>
+      <c r="E13" s="31"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="31" t="s">
         <v>461</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="31" t="s">
         <v>402</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1"/>
+      <c r="C14" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>823</v>
+      </c>
+      <c r="E14" s="31"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="31" t="s">
         <v>461</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="31" t="s">
         <v>403</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1"/>
+      <c r="C15" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>823</v>
+      </c>
+      <c r="E15" s="31"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -83710,57 +84050,60 @@
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="31" t="s">
         <v>760</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="31" t="s">
         <v>758</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2" t="s">
+      <c r="C22" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="31" t="s">
         <v>760</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="31">
         <v>30</v>
       </c>
+      <c r="E23" s="31"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="31" t="s">
         <v>760</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="1"/>
+      <c r="C24" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="31" t="s">
         <v>760</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="1"/>
+      <c r="C25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -83865,7 +84208,9 @@
       <c r="C33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D33" s="1"/>
+      <c r="D33" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -83877,7 +84222,9 @@
       <c r="C34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="1"/>
+      <c r="D34" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
@@ -83904,69 +84251,73 @@
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="31" t="s">
         <v>771</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="31" t="s">
         <v>772</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="31">
         <v>25</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="31" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="31" t="s">
         <v>771</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="31" t="s">
         <v>601</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1"/>
+      <c r="C38" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="31" t="s">
         <v>771</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="31" t="s">
         <v>429</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="1"/>
+      <c r="C39" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="31" t="s">
         <v>771</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="1"/>
+      <c r="C40" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="31" t="s">
         <v>771</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="1"/>
+      <c r="C41" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -84097,7 +84448,9 @@
       <c r="C51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D51" s="1"/>
+      <c r="D51" s="1">
+        <v>38</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -84741,7 +85094,9 @@
       <c r="C100" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D100" s="20"/>
+      <c r="D100" s="20">
+        <v>10</v>
+      </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="20" t="s">
@@ -84766,6 +85121,48 @@
         <v>4</v>
       </c>
       <c r="D102" s="20"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:E102"/>
@@ -84998,34 +85395,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
-  <xsnLocation/>
-  <cached>True</cached>
-  <openByDefault>True</openByDefault>
-  <xsnScope/>
-</customXsn>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <IM_x0020_Back_x002d_Up xmlns="bae2312d-cea4-4f39-b982-bee6be9b0e7d">Rocco Morgante</IM_x0020_Back_x002d_Up>
-    <IM xmlns="bae2312d-cea4-4f39-b982-bee6be9b0e7d">Qi-Fang</IM>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D17CDF952BBCB44900ABCA2CDBD5B8D" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d8f50d687aeb68c4c89ec510a64d2db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bae2312d-cea4-4f39-b982-bee6be9b0e7d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e065488d58007693a9b3776e11604c3a" ns2:_="">
     <xsd:import namespace="bae2312d-cea4-4f39-b982-bee6be9b0e7d"/>
@@ -85121,32 +85490,35 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B403FDD-90A4-47B1-A942-4A38C16BD3C6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <IM_x0020_Back_x002d_Up xmlns="bae2312d-cea4-4f39-b982-bee6be9b0e7d">Rocco Morgante</IM_x0020_Back_x002d_Up>
+    <IM xmlns="bae2312d-cea4-4f39-b982-bee6be9b0e7d">Qi-Fang</IM>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2049F0C-A836-4632-BA48-7EFE0C81264E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E89AF7A-A852-4882-851B-931D45708D9C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bae2312d-cea4-4f39-b982-bee6be9b0e7d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
+  <xsnLocation/>
+  <cached>True</cached>
+  <openByDefault>True</openByDefault>
+  <xsnScope/>
+</customXsn>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DD109BD-D92A-4FCB-A6F7-B93227E955A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -85161,4 +85533,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E89AF7A-A852-4882-851B-931D45708D9C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bae2312d-cea4-4f39-b982-bee6be9b0e7d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2049F0C-A836-4632-BA48-7EFE0C81264E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B403FDD-90A4-47B1-A942-4A38C16BD3C6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>